--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.760844159907265</v>
+        <v>3.760844159907151</v>
       </c>
       <c r="C2">
-        <v>0.4126075158266644</v>
+        <v>0.4126075158264939</v>
       </c>
       <c r="D2">
         <v>0.01864258653073492</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.060047289091486</v>
+        <v>2.060047289091472</v>
       </c>
       <c r="G2">
         <v>1.634766818222104</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.833709994795058</v>
+        <v>1.833709994795001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.234907539276321</v>
+        <v>3.234907539276378</v>
       </c>
       <c r="C3">
-        <v>0.3629622458078643</v>
+        <v>0.3629622458080632</v>
       </c>
       <c r="D3">
-        <v>0.01857735285257078</v>
+        <v>0.01857735285267381</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.80788858135368</v>
+        <v>1.807888581353666</v>
       </c>
       <c r="G3">
-        <v>1.438362622493344</v>
+        <v>1.438362622493315</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.558604399859007</v>
+        <v>1.558604399858993</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.917661355344478</v>
+        <v>2.917661355344308</v>
       </c>
       <c r="C4">
-        <v>0.3326082845124461</v>
+        <v>0.3326082845123324</v>
       </c>
       <c r="D4">
-        <v>0.01865124447266453</v>
+        <v>0.01865124447297362</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.659031572139384</v>
+        <v>1.659031572139369</v>
       </c>
       <c r="G4">
         <v>1.322730330424505</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.395542331523032</v>
+        <v>1.39554233152306</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.789563870002212</v>
+        <v>2.789563870002326</v>
       </c>
       <c r="C5">
-        <v>0.3202597930581135</v>
+        <v>0.3202597930579714</v>
       </c>
       <c r="D5">
-        <v>0.01870637149970378</v>
+        <v>0.01870637149980681</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.59967807141426</v>
+        <v>1.599678071414289</v>
       </c>
       <c r="G5">
-        <v>1.276695955412805</v>
+        <v>1.276695955412819</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.330311172782203</v>
+        <v>1.33031117278226</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.76835818289527</v>
+        <v>2.768358182895042</v>
       </c>
       <c r="C6">
-        <v>0.3182102937734896</v>
+        <v>0.3182102937733902</v>
       </c>
       <c r="D6">
-        <v>0.01871693903232341</v>
+        <v>0.01871693903241223</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.31954638353011</v>
+        <v>1.319546383530081</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.915929302177858</v>
+        <v>2.915929302177972</v>
       </c>
       <c r="C7">
-        <v>0.3324416775781742</v>
+        <v>0.3324416775785437</v>
       </c>
       <c r="D7">
-        <v>0.01865189109983945</v>
+        <v>0.0186518911000455</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.658226059322104</v>
+        <v>1.658226059322075</v>
       </c>
       <c r="G7">
         <v>1.322105294012374</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.394657980082812</v>
+        <v>1.394657980082854</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.578164677529287</v>
+        <v>3.578164677529116</v>
       </c>
       <c r="C8">
-        <v>0.3954560014986441</v>
+        <v>0.3954560014984168</v>
       </c>
       <c r="D8">
-        <v>0.01859409252109856</v>
+        <v>0.0185940925210808</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.971740006033116</v>
+        <v>1.97174000603313</v>
       </c>
       <c r="G8">
-        <v>1.565914381215293</v>
+        <v>1.565914381215308</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.934808926691915</v>
+        <v>4.934808926692142</v>
       </c>
       <c r="C9">
-        <v>0.5206240728820148</v>
+        <v>0.5206240728822422</v>
       </c>
       <c r="D9">
-        <v>0.01958049476661827</v>
+        <v>0.01958049476661117</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>2.644028060077687</v>
       </c>
       <c r="G9">
-        <v>2.091772697529819</v>
+        <v>2.091772697529834</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.46997025255402</v>
+        <v>2.469970252554077</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.988513242074987</v>
+        <v>5.988513242075101</v>
       </c>
       <c r="C10">
-        <v>0.6144810448253679</v>
+        <v>0.6144810448257942</v>
       </c>
       <c r="D10">
-        <v>0.02131296667285909</v>
+        <v>0.02131296667298699</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>3.189786198073989</v>
       </c>
       <c r="G10">
-        <v>2.521159117886214</v>
+        <v>2.521159117886171</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.068905175287711</v>
+        <v>3.068905175287725</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.486407885212884</v>
+        <v>6.486407885212998</v>
       </c>
       <c r="C11">
         <v>0.6578324855551614</v>
       </c>
       <c r="D11">
-        <v>0.02242070986454081</v>
+        <v>0.0224207098645266</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.454064673403053</v>
+        <v>3.454064673403025</v>
       </c>
       <c r="G11">
-        <v>2.729791725053943</v>
+        <v>2.729791725053971</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.361867404054991</v>
+        <v>3.361867404055005</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.678271545456141</v>
+        <v>6.678271545456255</v>
       </c>
       <c r="C12">
-        <v>0.6743661668912466</v>
+        <v>0.6743661668910477</v>
       </c>
       <c r="D12">
-        <v>0.02289732535369637</v>
+        <v>0.022897325353469</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.55694390572279</v>
+        <v>3.556943905722818</v>
       </c>
       <c r="G12">
-        <v>2.811126717174062</v>
+        <v>2.811126717174048</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.476573960737866</v>
+        <v>3.47657396073788</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.636790524148466</v>
+        <v>6.636790524148296</v>
       </c>
       <c r="C13">
-        <v>0.6707997168130646</v>
+        <v>0.6707997168124109</v>
       </c>
       <c r="D13">
-        <v>0.02279192666523855</v>
+        <v>0.02279192666519947</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.534653197416532</v>
+        <v>3.534653197416503</v>
       </c>
       <c r="G13">
-        <v>2.7934984664832</v>
+        <v>2.793498466483229</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.451686715151766</v>
+        <v>3.45168671515178</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.502121778768583</v>
+        <v>6.502121778768696</v>
       </c>
       <c r="C14">
-        <v>0.6591902238861849</v>
+        <v>0.6591902238861564</v>
       </c>
       <c r="D14">
-        <v>0.02245870169645059</v>
+        <v>0.02245870169619479</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3.462469175906648</v>
       </c>
       <c r="G14">
-        <v>2.736433774766738</v>
+        <v>2.736433774766752</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.371223347408616</v>
+        <v>3.371223347408645</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>6.420087771665294</v>
       </c>
       <c r="C15">
-        <v>0.652095109170574</v>
+        <v>0.6520951091708298</v>
       </c>
       <c r="D15">
-        <v>0.02226241394980732</v>
+        <v>0.02226241394967943</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.418636104527849</v>
+        <v>3.418636104527877</v>
       </c>
       <c r="G15">
         <v>2.70179745467594</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.322456131500289</v>
+        <v>3.322456131500246</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.956400709530385</v>
+        <v>5.956400709530442</v>
       </c>
       <c r="C16">
         <v>0.6116630262716853</v>
       </c>
       <c r="D16">
-        <v>0.02124789680427952</v>
+        <v>0.02124789680406991</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.172877519633204</v>
+        <v>3.172877519633147</v>
       </c>
       <c r="G16">
-        <v>2.507825827925842</v>
+        <v>2.507825827925828</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.050237133520895</v>
+        <v>3.050237133520866</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.6771185611546</v>
+        <v>5.67711856115443</v>
       </c>
       <c r="C17">
-        <v>0.5870426565811897</v>
+        <v>0.5870426565814171</v>
       </c>
       <c r="D17">
-        <v>0.02071449354048482</v>
+        <v>0.02071449354036403</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.026537012851747</v>
+        <v>3.026537012851719</v>
       </c>
       <c r="G17">
-        <v>2.392507488839684</v>
+        <v>2.392507488839698</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.889008566389421</v>
+        <v>2.889008566389407</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.518183386717283</v>
+        <v>5.518183386716998</v>
       </c>
       <c r="C18">
-        <v>0.5729418008760376</v>
+        <v>0.5729418008760661</v>
       </c>
       <c r="D18">
-        <v>0.02043697008591039</v>
+        <v>0.02043697008586776</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.943837399870745</v>
+        <v>2.94383739987083</v>
       </c>
       <c r="G18">
-        <v>2.327401969802196</v>
+        <v>2.327401969802224</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.464645092077717</v>
+        <v>5.46464509207766</v>
       </c>
       <c r="C19">
-        <v>0.5681771644471212</v>
+        <v>0.5681771644469222</v>
       </c>
       <c r="D19">
-        <v>0.02034773723767458</v>
+        <v>0.02034773723780958</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.916075910502087</v>
+        <v>2.91607591050203</v>
       </c>
       <c r="G19">
-        <v>2.305557027823141</v>
+        <v>2.305557027823127</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.767678721834613</v>
+        <v>2.767678721834599</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.706668345503203</v>
+        <v>5.706668345502919</v>
       </c>
       <c r="C20">
-        <v>0.5896571557206016</v>
+        <v>0.5896571557203742</v>
       </c>
       <c r="D20">
-        <v>0.02076817318981483</v>
+        <v>0.02076817318993207</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.041959618968264</v>
+        <v>3.041959618968207</v>
       </c>
       <c r="G20">
         <v>2.404654054296444</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.905972832584609</v>
+        <v>2.905972832584595</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.541581156261032</v>
+        <v>6.541581156260975</v>
       </c>
       <c r="C21">
-        <v>0.6625968258176442</v>
+        <v>0.6625968258179</v>
       </c>
       <c r="D21">
-        <v>0.02255492357604894</v>
+        <v>0.02255492357593525</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.107026890954387</v>
+        <v>7.107026890954216</v>
       </c>
       <c r="C22">
-        <v>0.7109647114538689</v>
+        <v>0.7109647114541247</v>
       </c>
       <c r="D22">
-        <v>0.02406322119560045</v>
+        <v>0.02406322119572835</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.788878106508406</v>
+        <v>3.788878106508434</v>
       </c>
       <c r="G22">
-        <v>2.994726225904174</v>
+        <v>2.994726225904159</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.736717016110291</v>
+        <v>3.736717016110333</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.80317071173863</v>
+        <v>6.803170711738687</v>
       </c>
       <c r="C23">
-        <v>0.6850775250934475</v>
+        <v>0.6850775250931918</v>
       </c>
       <c r="D23">
-        <v>0.02322254179476602</v>
+        <v>0.02322254179476957</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.624220321087165</v>
+        <v>3.624220321087222</v>
       </c>
       <c r="G23">
         <v>2.864349518152679</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.55180495704434</v>
+        <v>3.551804957044368</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.693303864858706</v>
+        <v>5.693303864858592</v>
       </c>
       <c r="C24">
-        <v>0.5884749750370872</v>
+        <v>0.5884749750368314</v>
       </c>
       <c r="D24">
-        <v>0.0207438146673411</v>
+        <v>0.02074381466722031</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>3.034982629996392</v>
       </c>
       <c r="G24">
-        <v>2.399158907827385</v>
+        <v>2.399158907827371</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.898297652402547</v>
+        <v>2.898297652402505</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559585474917753</v>
+        <v>4.559585474917867</v>
       </c>
       <c r="C25">
-        <v>0.4865035675470892</v>
+        <v>0.4865035675473166</v>
       </c>
       <c r="D25">
-        <v>0.01916522349558392</v>
+        <v>0.01916522349547378</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>2.454439185109862</v>
       </c>
       <c r="G25">
-        <v>1.94310649597459</v>
+        <v>1.943106495974575</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.263186344440498</v>
+        <v>2.263186344440527</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.760844159907151</v>
+        <v>3.760844159907265</v>
       </c>
       <c r="C2">
-        <v>0.4126075158264939</v>
+        <v>0.4126075158266644</v>
       </c>
       <c r="D2">
         <v>0.01864258653073492</v>
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.060047289091472</v>
+        <v>2.060047289091486</v>
       </c>
       <c r="G2">
         <v>1.634766818222104</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.833709994795001</v>
+        <v>1.833709994795058</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.234907539276378</v>
+        <v>3.234907539276321</v>
       </c>
       <c r="C3">
-        <v>0.3629622458080632</v>
+        <v>0.3629622458078643</v>
       </c>
       <c r="D3">
-        <v>0.01857735285267381</v>
+        <v>0.01857735285257078</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.807888581353666</v>
+        <v>1.80788858135368</v>
       </c>
       <c r="G3">
-        <v>1.438362622493315</v>
+        <v>1.438362622493344</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.558604399858993</v>
+        <v>1.558604399859007</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.917661355344308</v>
+        <v>2.917661355344478</v>
       </c>
       <c r="C4">
-        <v>0.3326082845123324</v>
+        <v>0.3326082845124461</v>
       </c>
       <c r="D4">
-        <v>0.01865124447297362</v>
+        <v>0.01865124447266453</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.659031572139369</v>
+        <v>1.659031572139384</v>
       </c>
       <c r="G4">
         <v>1.322730330424505</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.39554233152306</v>
+        <v>1.395542331523032</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.789563870002326</v>
+        <v>2.789563870002212</v>
       </c>
       <c r="C5">
-        <v>0.3202597930579714</v>
+        <v>0.3202597930581135</v>
       </c>
       <c r="D5">
-        <v>0.01870637149980681</v>
+        <v>0.01870637149970378</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.599678071414289</v>
+        <v>1.59967807141426</v>
       </c>
       <c r="G5">
-        <v>1.276695955412819</v>
+        <v>1.276695955412805</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.33031117278226</v>
+        <v>1.330311172782203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.768358182895042</v>
+        <v>2.76835818289527</v>
       </c>
       <c r="C6">
-        <v>0.3182102937733902</v>
+        <v>0.3182102937734896</v>
       </c>
       <c r="D6">
-        <v>0.01871693903241223</v>
+        <v>0.01871693903232341</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.319546383530081</v>
+        <v>1.31954638353011</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.915929302177972</v>
+        <v>2.915929302177858</v>
       </c>
       <c r="C7">
-        <v>0.3324416775785437</v>
+        <v>0.3324416775781742</v>
       </c>
       <c r="D7">
-        <v>0.0186518911000455</v>
+        <v>0.01865189109983945</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.658226059322075</v>
+        <v>1.658226059322104</v>
       </c>
       <c r="G7">
         <v>1.322105294012374</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.394657980082854</v>
+        <v>1.394657980082812</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.578164677529116</v>
+        <v>3.578164677529287</v>
       </c>
       <c r="C8">
-        <v>0.3954560014984168</v>
+        <v>0.3954560014986441</v>
       </c>
       <c r="D8">
-        <v>0.0185940925210808</v>
+        <v>0.01859409252109856</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.97174000603313</v>
+        <v>1.971740006033116</v>
       </c>
       <c r="G8">
-        <v>1.565914381215308</v>
+        <v>1.565914381215293</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.934808926692142</v>
+        <v>4.934808926691915</v>
       </c>
       <c r="C9">
-        <v>0.5206240728822422</v>
+        <v>0.5206240728820148</v>
       </c>
       <c r="D9">
-        <v>0.01958049476661117</v>
+        <v>0.01958049476661827</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>2.644028060077687</v>
       </c>
       <c r="G9">
-        <v>2.091772697529834</v>
+        <v>2.091772697529819</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.469970252554077</v>
+        <v>2.46997025255402</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.988513242075101</v>
+        <v>5.988513242074987</v>
       </c>
       <c r="C10">
-        <v>0.6144810448257942</v>
+        <v>0.6144810448253679</v>
       </c>
       <c r="D10">
-        <v>0.02131296667298699</v>
+        <v>0.02131296667285909</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>3.189786198073989</v>
       </c>
       <c r="G10">
-        <v>2.521159117886171</v>
+        <v>2.521159117886214</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.068905175287725</v>
+        <v>3.068905175287711</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.486407885212998</v>
+        <v>6.486407885212884</v>
       </c>
       <c r="C11">
         <v>0.6578324855551614</v>
       </c>
       <c r="D11">
-        <v>0.0224207098645266</v>
+        <v>0.02242070986454081</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.454064673403025</v>
+        <v>3.454064673403053</v>
       </c>
       <c r="G11">
-        <v>2.729791725053971</v>
+        <v>2.729791725053943</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.361867404055005</v>
+        <v>3.361867404054991</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.678271545456255</v>
+        <v>6.678271545456141</v>
       </c>
       <c r="C12">
-        <v>0.6743661668910477</v>
+        <v>0.6743661668912466</v>
       </c>
       <c r="D12">
-        <v>0.022897325353469</v>
+        <v>0.02289732535369637</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.556943905722818</v>
+        <v>3.55694390572279</v>
       </c>
       <c r="G12">
-        <v>2.811126717174048</v>
+        <v>2.811126717174062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.47657396073788</v>
+        <v>3.476573960737866</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.636790524148296</v>
+        <v>6.636790524148466</v>
       </c>
       <c r="C13">
-        <v>0.6707997168124109</v>
+        <v>0.6707997168130646</v>
       </c>
       <c r="D13">
-        <v>0.02279192666519947</v>
+        <v>0.02279192666523855</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.534653197416503</v>
+        <v>3.534653197416532</v>
       </c>
       <c r="G13">
-        <v>2.793498466483229</v>
+        <v>2.7934984664832</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.45168671515178</v>
+        <v>3.451686715151766</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.502121778768696</v>
+        <v>6.502121778768583</v>
       </c>
       <c r="C14">
-        <v>0.6591902238861564</v>
+        <v>0.6591902238861849</v>
       </c>
       <c r="D14">
-        <v>0.02245870169619479</v>
+        <v>0.02245870169645059</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>3.462469175906648</v>
       </c>
       <c r="G14">
-        <v>2.736433774766752</v>
+        <v>2.736433774766738</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.371223347408645</v>
+        <v>3.371223347408616</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>6.420087771665294</v>
       </c>
       <c r="C15">
-        <v>0.6520951091708298</v>
+        <v>0.652095109170574</v>
       </c>
       <c r="D15">
-        <v>0.02226241394967943</v>
+        <v>0.02226241394980732</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.418636104527877</v>
+        <v>3.418636104527849</v>
       </c>
       <c r="G15">
         <v>2.70179745467594</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.322456131500246</v>
+        <v>3.322456131500289</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.956400709530442</v>
+        <v>5.956400709530385</v>
       </c>
       <c r="C16">
         <v>0.6116630262716853</v>
       </c>
       <c r="D16">
-        <v>0.02124789680406991</v>
+        <v>0.02124789680427952</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.172877519633147</v>
+        <v>3.172877519633204</v>
       </c>
       <c r="G16">
-        <v>2.507825827925828</v>
+        <v>2.507825827925842</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.050237133520866</v>
+        <v>3.050237133520895</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.67711856115443</v>
+        <v>5.6771185611546</v>
       </c>
       <c r="C17">
-        <v>0.5870426565814171</v>
+        <v>0.5870426565811897</v>
       </c>
       <c r="D17">
-        <v>0.02071449354036403</v>
+        <v>0.02071449354048482</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.026537012851719</v>
+        <v>3.026537012851747</v>
       </c>
       <c r="G17">
-        <v>2.392507488839698</v>
+        <v>2.392507488839684</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.889008566389407</v>
+        <v>2.889008566389421</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.518183386716998</v>
+        <v>5.518183386717283</v>
       </c>
       <c r="C18">
-        <v>0.5729418008760661</v>
+        <v>0.5729418008760376</v>
       </c>
       <c r="D18">
-        <v>0.02043697008586776</v>
+        <v>0.02043697008591039</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.94383739987083</v>
+        <v>2.943837399870745</v>
       </c>
       <c r="G18">
-        <v>2.327401969802224</v>
+        <v>2.327401969802196</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.46464509207766</v>
+        <v>5.464645092077717</v>
       </c>
       <c r="C19">
-        <v>0.5681771644469222</v>
+        <v>0.5681771644471212</v>
       </c>
       <c r="D19">
-        <v>0.02034773723780958</v>
+        <v>0.02034773723767458</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.91607591050203</v>
+        <v>2.916075910502087</v>
       </c>
       <c r="G19">
-        <v>2.305557027823127</v>
+        <v>2.305557027823141</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.767678721834599</v>
+        <v>2.767678721834613</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.706668345502919</v>
+        <v>5.706668345503203</v>
       </c>
       <c r="C20">
-        <v>0.5896571557203742</v>
+        <v>0.5896571557206016</v>
       </c>
       <c r="D20">
-        <v>0.02076817318993207</v>
+        <v>0.02076817318981483</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.041959618968207</v>
+        <v>3.041959618968264</v>
       </c>
       <c r="G20">
         <v>2.404654054296444</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.905972832584595</v>
+        <v>2.905972832584609</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.541581156260975</v>
+        <v>6.541581156261032</v>
       </c>
       <c r="C21">
-        <v>0.6625968258179</v>
+        <v>0.6625968258176442</v>
       </c>
       <c r="D21">
-        <v>0.02255492357593525</v>
+        <v>0.02255492357604894</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.107026890954216</v>
+        <v>7.107026890954387</v>
       </c>
       <c r="C22">
-        <v>0.7109647114541247</v>
+        <v>0.7109647114538689</v>
       </c>
       <c r="D22">
-        <v>0.02406322119572835</v>
+        <v>0.02406322119560045</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.788878106508434</v>
+        <v>3.788878106508406</v>
       </c>
       <c r="G22">
-        <v>2.994726225904159</v>
+        <v>2.994726225904174</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.736717016110333</v>
+        <v>3.736717016110291</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.803170711738687</v>
+        <v>6.80317071173863</v>
       </c>
       <c r="C23">
-        <v>0.6850775250931918</v>
+        <v>0.6850775250934475</v>
       </c>
       <c r="D23">
-        <v>0.02322254179476957</v>
+        <v>0.02322254179476602</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.624220321087222</v>
+        <v>3.624220321087165</v>
       </c>
       <c r="G23">
         <v>2.864349518152679</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.551804957044368</v>
+        <v>3.55180495704434</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,13 +1248,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.693303864858592</v>
+        <v>5.693303864858706</v>
       </c>
       <c r="C24">
-        <v>0.5884749750368314</v>
+        <v>0.5884749750370872</v>
       </c>
       <c r="D24">
-        <v>0.02074381466722031</v>
+        <v>0.0207438146673411</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>3.034982629996392</v>
       </c>
       <c r="G24">
-        <v>2.399158907827371</v>
+        <v>2.399158907827385</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.898297652402505</v>
+        <v>2.898297652402547</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559585474917867</v>
+        <v>4.559585474917753</v>
       </c>
       <c r="C25">
-        <v>0.4865035675473166</v>
+        <v>0.4865035675470892</v>
       </c>
       <c r="D25">
-        <v>0.01916522349547378</v>
+        <v>0.01916522349558392</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>2.454439185109862</v>
       </c>
       <c r="G25">
-        <v>1.943106495974575</v>
+        <v>1.94310649597459</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.263186344440527</v>
+        <v>2.263186344440498</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.760844159907265</v>
+        <v>3.760537703116597</v>
       </c>
       <c r="C2">
-        <v>0.4126075158266644</v>
+        <v>0.4125086987651514</v>
       </c>
       <c r="D2">
-        <v>0.01864258653073492</v>
+        <v>0.01851019118210218</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.060047289091486</v>
+        <v>2.055752535015614</v>
       </c>
       <c r="G2">
-        <v>1.634766818222104</v>
+        <v>0.5328474934406984</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.101397492472188</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.833709994795058</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.833633131144865</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.234907539276321</v>
+        <v>3.23470783730977</v>
       </c>
       <c r="C3">
-        <v>0.3629622458078643</v>
+        <v>0.3628908488459501</v>
       </c>
       <c r="D3">
-        <v>0.01857735285257078</v>
+        <v>0.01845963314768895</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.80788858135368</v>
+        <v>1.804144180769711</v>
       </c>
       <c r="G3">
-        <v>1.438362622493344</v>
+        <v>0.4642415601660872</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9742820406453916</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.558604399859007</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.558556484059494</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.917661355344478</v>
+        <v>2.917516975930482</v>
       </c>
       <c r="C4">
-        <v>0.3326082845124461</v>
+        <v>0.3325527542293116</v>
       </c>
       <c r="D4">
-        <v>0.01865124447266453</v>
+        <v>0.01854209667712325</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.659031572139384</v>
+        <v>1.655614844243729</v>
       </c>
       <c r="G4">
-        <v>1.322730330424505</v>
+        <v>0.423743041415463</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8995550968560337</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.395542331523032</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.395508583729026</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.789563870002212</v>
+        <v>2.789439867616807</v>
       </c>
       <c r="C5">
-        <v>0.3202597930581135</v>
+        <v>0.3202105267227324</v>
       </c>
       <c r="D5">
-        <v>0.01870637149970378</v>
+        <v>0.01860062276412933</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.59967807141426</v>
+        <v>1.596392745297877</v>
       </c>
       <c r="G5">
-        <v>1.276695955412805</v>
+        <v>0.4075937641313629</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8698331940559427</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.330311172782203</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.33028248577611</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.76835818289527</v>
+        <v>2.768237443855128</v>
       </c>
       <c r="C6">
-        <v>0.3182102937734896</v>
+        <v>0.3181620565041641</v>
       </c>
       <c r="D6">
-        <v>0.01871693903232341</v>
+        <v>0.01861174946350275</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.589896131967436</v>
+        <v>1.586632508489586</v>
       </c>
       <c r="G6">
-        <v>1.269113257130329</v>
+        <v>0.4049320992203178</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8649391168013523</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.31954638353011</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.319518498704795</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.915929302177858</v>
+        <v>2.91578520586188</v>
       </c>
       <c r="C7">
-        <v>0.3324416775781742</v>
+        <v>0.3323862325385392</v>
       </c>
       <c r="D7">
-        <v>0.01865189109983945</v>
+        <v>0.01854278950613875</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.658226059322104</v>
+        <v>1.654811111622223</v>
       </c>
       <c r="G7">
-        <v>1.322105294012374</v>
+        <v>0.4235238802544927</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8991514323490151</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.394657980082812</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.394624303200331</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.578164677529287</v>
+        <v>3.577897415847701</v>
       </c>
       <c r="C8">
-        <v>0.3954560014986441</v>
+        <v>0.3953668669183514</v>
       </c>
       <c r="D8">
-        <v>0.01859409252109856</v>
+        <v>0.01846685900332545</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.971740006033116</v>
+        <v>1.967637431649322</v>
       </c>
       <c r="G8">
-        <v>1.565914381215293</v>
+        <v>0.5088198249792555</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.056811077710293</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.737473860287551</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.737407857476839</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.934808926691915</v>
+        <v>4.934196675143767</v>
       </c>
       <c r="C9">
-        <v>0.5206240728820148</v>
+        <v>0.5204589853407242</v>
       </c>
       <c r="D9">
-        <v>0.01958049476661827</v>
+        <v>0.01941334129744021</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.644028060077687</v>
+        <v>2.638471389360973</v>
       </c>
       <c r="G9">
-        <v>2.091772697529819</v>
+        <v>0.6918368935967578</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.397851558999704</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.46997025255402</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.469800469205751</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.988513242074987</v>
+        <v>5.98754450405562</v>
       </c>
       <c r="C10">
-        <v>0.6144810448253679</v>
+        <v>0.6142504708772378</v>
       </c>
       <c r="D10">
-        <v>0.02131296667285909</v>
+        <v>0.02111229552483351</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.189786198073989</v>
+        <v>3.183054289151244</v>
       </c>
       <c r="G10">
-        <v>2.521159117886214</v>
+        <v>0.840638395752535</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.676986887622704</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.068905175287711</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.068610907995392</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.486407885212884</v>
+        <v>6.485242030041263</v>
       </c>
       <c r="C11">
-        <v>0.6578324855551614</v>
+        <v>0.6575689815541637</v>
       </c>
       <c r="D11">
-        <v>0.02242070986454081</v>
+        <v>0.02220341780230228</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.454064673403053</v>
+        <v>3.446761991665113</v>
       </c>
       <c r="G11">
-        <v>2.729791725053943</v>
+        <v>0.9127882124457756</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.812768081488656</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.361867404054991</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.361497469515285</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.678271545456141</v>
+        <v>6.677024558454093</v>
       </c>
       <c r="C12">
-        <v>0.6743661668912466</v>
+        <v>0.6740896325298138</v>
       </c>
       <c r="D12">
-        <v>0.02289732535369637</v>
+        <v>0.02267348952440429</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.55694390572279</v>
+        <v>3.549418431826098</v>
       </c>
       <c r="G12">
-        <v>2.811126717174062</v>
+        <v>0.9408929852444174</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.865724931087115</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.476573960737866</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.476171517880417</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.636790524148466</v>
+        <v>6.635561327125288</v>
       </c>
       <c r="C13">
-        <v>0.6707997168130646</v>
+        <v>0.6705260156819008</v>
       </c>
       <c r="D13">
-        <v>0.02279192666523855</v>
+        <v>0.02256951225771076</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.534653197416532</v>
+        <v>3.527176029342911</v>
       </c>
       <c r="G13">
-        <v>2.7934984664832</v>
+        <v>0.9348026805928527</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.854246232812201</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.451686715151766</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.451291467920456</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.502121778768583</v>
+        <v>6.500949388860533</v>
       </c>
       <c r="C14">
-        <v>0.6591902238861849</v>
+        <v>0.6589256598082898</v>
       </c>
       <c r="D14">
-        <v>0.02245870169645059</v>
+        <v>0.02224087663329044</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.462469175906648</v>
+        <v>3.455148308065986</v>
       </c>
       <c r="G14">
-        <v>2.736433774766738</v>
+        <v>0.915083785586944</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.81709223277997</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.371223347408616</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.370850823727309</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.420087771665294</v>
+        <v>6.418949281782488</v>
       </c>
       <c r="C15">
-        <v>0.652095109170574</v>
+        <v>0.6518360651903379</v>
       </c>
       <c r="D15">
-        <v>0.02226241394980732</v>
+        <v>0.02204736565926524</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.418636104527849</v>
+        <v>3.41141005855232</v>
       </c>
       <c r="G15">
-        <v>2.70179745467594</v>
+        <v>0.9031121405571128</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.794543981534943</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.322456131500289</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.322096983586093</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.956400709530385</v>
+        <v>5.955444035044934</v>
       </c>
       <c r="C16">
-        <v>0.6116630262716853</v>
+        <v>0.6114345323838961</v>
       </c>
       <c r="D16">
-        <v>0.02124789680427952</v>
+        <v>0.0210482800847025</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.172877519633204</v>
+        <v>3.166182069145435</v>
       </c>
       <c r="G16">
-        <v>2.507825827925842</v>
+        <v>0.8360244137737283</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.668312452477096</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.050237133520895</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.049947342584176</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.6771185611546</v>
+        <v>5.676263562111103</v>
       </c>
       <c r="C17">
-        <v>0.5870426565811897</v>
+        <v>0.5868320292006501</v>
       </c>
       <c r="D17">
-        <v>0.02071449354048482</v>
+        <v>0.0205239588684698</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.026537012851747</v>
+        <v>3.02015688970323</v>
       </c>
       <c r="G17">
-        <v>2.392507488839684</v>
+        <v>0.7961021594792612</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.593304744087177</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.889008566389421</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.888755783360423</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.518183386717283</v>
+        <v>5.517383687515462</v>
       </c>
       <c r="C18">
-        <v>0.5729418008760376</v>
+        <v>0.572741161971237</v>
       </c>
       <c r="D18">
-        <v>0.02043697008591039</v>
+        <v>0.02025153370605537</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.943837399870745</v>
+        <v>2.93763534833613</v>
       </c>
       <c r="G18">
-        <v>2.327401969802196</v>
+        <v>0.7735496082713382</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.550971308812933</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.798144200137159</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.797910998127108</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.464645092077717</v>
+        <v>5.463863607882161</v>
       </c>
       <c r="C19">
-        <v>0.5681771644471212</v>
+        <v>0.5679798609958198</v>
       </c>
       <c r="D19">
-        <v>0.02034773723767458</v>
+        <v>0.02016400687425701</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.916075910502087</v>
+        <v>2.909933622959329</v>
       </c>
       <c r="G19">
-        <v>2.305557027823141</v>
+        <v>0.7659802197837138</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.536769466787916</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.767678721834613</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.767451884002142</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.706668345503203</v>
+        <v>5.705802861405971</v>
       </c>
       <c r="C20">
-        <v>0.5896571557206016</v>
+        <v>0.5894446569315335</v>
       </c>
       <c r="D20">
-        <v>0.02076817318981483</v>
+        <v>0.02057668503682564</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.041959618968264</v>
+        <v>3.035546279138515</v>
       </c>
       <c r="G20">
-        <v>2.404654054296444</v>
+        <v>0.8003086200659908</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.601203914676603</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.905972832584609</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.905716293161404</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.541581156261032</v>
+        <v>6.54039227072542</v>
       </c>
       <c r="C21">
-        <v>0.6625968258176442</v>
+        <v>0.6623295941598997</v>
       </c>
       <c r="D21">
-        <v>0.02255492357604894</v>
+        <v>0.02233575778183194</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.483590766305667</v>
+        <v>3.476224183506758</v>
       </c>
       <c r="G21">
-        <v>2.753128019993767</v>
+        <v>0.9208531571719902</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.82796099495215</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.394747446897483</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.394368364626061</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.107026890954387</v>
+        <v>7.105587782332236</v>
       </c>
       <c r="C22">
-        <v>0.7109647114538689</v>
+        <v>0.7106583735644847</v>
       </c>
       <c r="D22">
-        <v>0.02406322119560045</v>
+        <v>0.02382447423808998</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.788878106508406</v>
+        <v>3.780848740097412</v>
       </c>
       <c r="G22">
-        <v>2.994726225904174</v>
+        <v>1.00429198902664</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.985308240952378</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.736717016110291</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.736234468374917</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.80317071173863</v>
+        <v>6.801869319414379</v>
       </c>
       <c r="C23">
-        <v>0.6850775250934475</v>
+        <v>0.6847924063970368</v>
       </c>
       <c r="D23">
-        <v>0.02322254179476602</v>
+        <v>0.0229944036988492</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.624220321087165</v>
+        <v>3.616548931867726</v>
       </c>
       <c r="G23">
-        <v>2.864349518152679</v>
+        <v>0.959277347959457</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.900384485619242</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.55180495704434</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.551380274363439</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.693303864858706</v>
+        <v>5.692443130776951</v>
       </c>
       <c r="C24">
-        <v>0.5884749750370872</v>
+        <v>0.5882633231860268</v>
       </c>
       <c r="D24">
-        <v>0.0207438146673411</v>
+        <v>0.02055275796254463</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.034982629996392</v>
+        <v>3.028584317336055</v>
       </c>
       <c r="G24">
-        <v>2.399158907827385</v>
+        <v>0.7984056458356292</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.597630260390645</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.898297652402547</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.898042816448424</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559585474917753</v>
+        <v>4.559081187404047</v>
       </c>
       <c r="C25">
-        <v>0.4865035675470892</v>
+        <v>0.4863604253989138</v>
       </c>
       <c r="D25">
-        <v>0.01916522349558392</v>
+        <v>0.01900947503392558</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.454439185109862</v>
+        <v>2.449291042031575</v>
       </c>
       <c r="G25">
-        <v>1.94310649597459</v>
+        <v>0.6401990370948454</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.301328446704161</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.263186344440498</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>2.263050932881768</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.760537703116597</v>
+        <v>4.878435906048537</v>
       </c>
       <c r="C2">
-        <v>0.4125086987651514</v>
+        <v>1.419359170793882</v>
       </c>
       <c r="D2">
-        <v>0.01851019118210218</v>
+        <v>0.0493753956032208</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.055752535015614</v>
+        <v>3.364514422397832</v>
       </c>
       <c r="G2">
-        <v>0.5328474934406984</v>
+        <v>0.0007831301700302475</v>
       </c>
       <c r="H2">
-        <v>1.101397492472188</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4450678303847155</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.833633131144865</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.9474436032819966</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.23470783730977</v>
+        <v>4.209824307892745</v>
       </c>
       <c r="C3">
-        <v>0.3628908488459501</v>
+        <v>1.21997299302086</v>
       </c>
       <c r="D3">
-        <v>0.01845963314768895</v>
+        <v>0.04374483169157628</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.804144180769711</v>
+        <v>3.017157484270172</v>
       </c>
       <c r="G3">
-        <v>0.4642415601660872</v>
+        <v>0.0007943666924947983</v>
       </c>
       <c r="H3">
-        <v>0.9742820406453916</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3899433402805386</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.558556484059494</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.9871822456816162</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.917516975930482</v>
+        <v>3.808974947991999</v>
       </c>
       <c r="C4">
-        <v>0.3325527542293116</v>
+        <v>1.100442282339031</v>
       </c>
       <c r="D4">
-        <v>0.01854209667712325</v>
+        <v>0.04033414402294255</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.655614844243729</v>
+        <v>2.813375446937243</v>
       </c>
       <c r="G4">
-        <v>0.423743041415463</v>
+        <v>0.0008014052308880976</v>
       </c>
       <c r="H4">
-        <v>0.8995550968560337</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3572019334650349</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.395508583729026</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.013772867638032</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.789439867616807</v>
+        <v>3.647705392933233</v>
       </c>
       <c r="C5">
-        <v>0.3202105267227324</v>
+        <v>1.052348914389427</v>
       </c>
       <c r="D5">
-        <v>0.01860062276412933</v>
+        <v>0.03895453984377184</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.596392745297877</v>
+        <v>2.732436656219903</v>
       </c>
       <c r="G5">
-        <v>0.4075937641313629</v>
+        <v>0.0008043119192433648</v>
       </c>
       <c r="H5">
-        <v>0.8698331940559427</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3441009558547137</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.33028248577611</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.025119705831926</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.768237443855128</v>
+        <v>3.621042685717953</v>
       </c>
       <c r="C6">
-        <v>0.3181620565041641</v>
+        <v>1.044397258460776</v>
       </c>
       <c r="D6">
-        <v>0.01861174946350275</v>
+        <v>0.03872604014771497</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.586632508489586</v>
+        <v>2.719116194479454</v>
       </c>
       <c r="G6">
-        <v>0.4049320992203178</v>
+        <v>0.0008047969863340361</v>
       </c>
       <c r="H6">
-        <v>0.8649391168013523</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3419391379665484</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.319518498704795</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.02703361470374</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.91578520586188</v>
+        <v>3.806792029784958</v>
       </c>
       <c r="C7">
-        <v>0.3323862325385392</v>
+        <v>1.099791320615736</v>
       </c>
       <c r="D7">
-        <v>0.01854278950613875</v>
+        <v>0.04031549833149484</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.654811111622223</v>
+        <v>2.812275711622561</v>
       </c>
       <c r="G7">
-        <v>0.4235238802544927</v>
+        <v>0.0008014442716469071</v>
       </c>
       <c r="H7">
-        <v>0.8991514323490151</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3570243169509837</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.394624303200331</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.013923875858019</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.577897415847701</v>
+        <v>4.645663091899792</v>
       </c>
       <c r="C8">
-        <v>0.3953668669183514</v>
+        <v>1.349939290387908</v>
       </c>
       <c r="D8">
-        <v>0.01846685900332545</v>
+        <v>0.04742341960643159</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.967637431649322</v>
+        <v>3.242593535746636</v>
       </c>
       <c r="G8">
-        <v>0.5088198249792555</v>
+        <v>0.0007869777871306558</v>
       </c>
       <c r="H8">
-        <v>1.056811077710293</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4258081852273392</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.737407857476839</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.9606652252151733</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.934196675143767</v>
+        <v>6.385938521500634</v>
       </c>
       <c r="C9">
-        <v>0.5204589853407242</v>
+        <v>1.869236060034609</v>
       </c>
       <c r="D9">
-        <v>0.01941334129744021</v>
+        <v>0.0618053864578556</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.638471389360973</v>
+        <v>4.176554281377065</v>
       </c>
       <c r="G9">
-        <v>0.6918368935967578</v>
+        <v>0.0007595378849850299</v>
       </c>
       <c r="H9">
-        <v>1.397851558999704</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5713658796754544</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.469800469205751</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.8756863497992384</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.98754450405562</v>
+        <v>7.752930242266757</v>
       </c>
       <c r="C10">
-        <v>0.6142504708772378</v>
+        <v>2.277883105254887</v>
       </c>
       <c r="D10">
-        <v>0.02111229552483351</v>
+        <v>0.07276544052567147</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.183054289151244</v>
+        <v>4.941959902673915</v>
       </c>
       <c r="G10">
-        <v>0.840638395752535</v>
+        <v>0.0007396555548574847</v>
       </c>
       <c r="H10">
-        <v>1.676986887622704</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6879552308253807</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.068610907995392</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.8285397423540388</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.485242030041263</v>
+        <v>8.402449016674382</v>
       </c>
       <c r="C11">
-        <v>0.6575689815541637</v>
+        <v>2.472360177658402</v>
       </c>
       <c r="D11">
-        <v>0.02220341780230228</v>
+        <v>0.07787126437713709</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.446761991665113</v>
+        <v>5.31413765021901</v>
       </c>
       <c r="G11">
-        <v>0.9127882124457756</v>
+        <v>0.0007305910673217079</v>
       </c>
       <c r="H11">
-        <v>1.812768081488656</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7439684359102614</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.361497469515285</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.8113716286192698</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.677024558454093</v>
+        <v>8.65325757604802</v>
       </c>
       <c r="C12">
-        <v>0.6740896325298138</v>
+        <v>2.547517137680984</v>
       </c>
       <c r="D12">
-        <v>0.02267348952440429</v>
+        <v>0.07982550283337986</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.549418431826098</v>
+        <v>5.459225061123078</v>
       </c>
       <c r="G12">
-        <v>0.9408929852444174</v>
+        <v>0.0007271474828208026</v>
       </c>
       <c r="H12">
-        <v>1.865724931087115</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7656986318937271</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.476171517880417</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.8055865370039896</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.635561327125288</v>
+        <v>8.599009998854228</v>
       </c>
       <c r="C13">
-        <v>0.6705260156819008</v>
+        <v>2.531258406021891</v>
       </c>
       <c r="D13">
-        <v>0.02256951225771076</v>
+        <v>0.07940363523065486</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.527176029342911</v>
+        <v>5.427780527816395</v>
       </c>
       <c r="G13">
-        <v>0.9348026805928527</v>
+        <v>0.0007278897605147715</v>
       </c>
       <c r="H13">
-        <v>1.854246232812201</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7609938982980253</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.451291467920456</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.8067987824642131</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.500949388860533</v>
+        <v>8.422980373566872</v>
       </c>
       <c r="C14">
-        <v>0.6589256598082898</v>
+        <v>2.478511268224793</v>
       </c>
       <c r="D14">
-        <v>0.02224087663329044</v>
+        <v>0.07803160180733215</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.455148308065986</v>
+        <v>5.325986343953758</v>
       </c>
       <c r="G14">
-        <v>0.915083785586944</v>
+        <v>0.0007303080359687482</v>
       </c>
       <c r="H14">
-        <v>1.81709223277997</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.74574519712192</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.370850823727309</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.8108806827517725</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.418949281782488</v>
+        <v>8.315817564131009</v>
       </c>
       <c r="C15">
-        <v>0.6518360651903379</v>
+        <v>2.44640836338499</v>
       </c>
       <c r="D15">
-        <v>0.02204736565926524</v>
+        <v>0.07719401311697993</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.41141005855232</v>
+        <v>5.264198384301324</v>
       </c>
       <c r="G15">
-        <v>0.9031121405571128</v>
+        <v>0.0007317875883245417</v>
       </c>
       <c r="H15">
-        <v>1.794543981534943</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7364755680753206</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.322096983586093</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.8134775633514977</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.955444035044934</v>
+        <v>7.711110076966406</v>
       </c>
       <c r="C16">
-        <v>0.6114345323838961</v>
+        <v>2.265368830302521</v>
       </c>
       <c r="D16">
-        <v>0.0210482800847025</v>
+        <v>0.07243446345384541</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.166182069145435</v>
+        <v>4.918176878367888</v>
       </c>
       <c r="G16">
-        <v>0.8360244137737283</v>
+        <v>0.0007402468746000314</v>
       </c>
       <c r="H16">
-        <v>1.668312452477096</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6843619166107118</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.049947342584176</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.8297559881513479</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.676263562111103</v>
+        <v>7.347796560534789</v>
       </c>
       <c r="C17">
-        <v>0.5868320292006501</v>
+        <v>2.15668638014921</v>
       </c>
       <c r="D17">
-        <v>0.0205239588684698</v>
+        <v>0.06954767285616015</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.02015688970323</v>
+        <v>4.712506306660174</v>
       </c>
       <c r="G17">
-        <v>0.7961021594792612</v>
+        <v>0.0007454259193535555</v>
       </c>
       <c r="H17">
-        <v>1.593304744087177</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6532135819382177</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.888755783360423</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.8409038778257951</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.517383687515462</v>
+        <v>7.141371444428614</v>
       </c>
       <c r="C18">
-        <v>0.572741161971237</v>
+        <v>2.094963277379918</v>
       </c>
       <c r="D18">
-        <v>0.02025153370605537</v>
+        <v>0.06789832039740418</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.93763534833613</v>
+        <v>4.596419004613352</v>
       </c>
       <c r="G18">
-        <v>0.7735496082713382</v>
+        <v>0.0007484034670981391</v>
       </c>
       <c r="H18">
-        <v>1.550971308812933</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6355716090272949</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.797910998127108</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.8477115451555193</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.463863607882161</v>
+        <v>7.07189236870056</v>
       </c>
       <c r="C19">
-        <v>0.5679798609958198</v>
+        <v>2.074192646257757</v>
       </c>
       <c r="D19">
-        <v>0.02016400687425701</v>
+        <v>0.06734168005220909</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.909933622959329</v>
+        <v>4.55747401390002</v>
       </c>
       <c r="G19">
-        <v>0.7659802197837138</v>
+        <v>0.000749411614885638</v>
       </c>
       <c r="H19">
-        <v>1.536769466787916</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6296428577828408</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.767451884002142</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.850081711751443</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.705802861405971</v>
+        <v>7.386202913756392</v>
       </c>
       <c r="C20">
-        <v>0.5894446569315335</v>
+        <v>2.168172395827412</v>
       </c>
       <c r="D20">
-        <v>0.02057668503682564</v>
+        <v>0.06985380937543084</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.035546279138515</v>
+        <v>4.734167018612339</v>
       </c>
       <c r="G20">
-        <v>0.8003086200659908</v>
+        <v>0.0007448747903009423</v>
       </c>
       <c r="H20">
-        <v>1.601203914676603</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6565004418052496</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.905716293161404</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.8396755461852621</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.54039227072542</v>
+        <v>8.474545102221896</v>
       </c>
       <c r="C21">
-        <v>0.6623295941598997</v>
+        <v>2.493960820499979</v>
       </c>
       <c r="D21">
-        <v>0.02233575778183194</v>
+        <v>0.07843400602706652</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.476224183506758</v>
+        <v>5.35576678488934</v>
       </c>
       <c r="G21">
-        <v>0.9208531571719902</v>
+        <v>0.0007295981033759325</v>
       </c>
       <c r="H21">
-        <v>1.82796099495215</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7502091988826294</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.394368364626061</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.8096613886781796</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.105587782332236</v>
+        <v>9.214648371479143</v>
       </c>
       <c r="C22">
-        <v>0.7106583735644847</v>
+        <v>2.715873386155408</v>
       </c>
       <c r="D22">
-        <v>0.02382447423808998</v>
+        <v>0.08416491498152112</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.780848740097412</v>
+        <v>5.786653648816952</v>
       </c>
       <c r="G22">
-        <v>1.00429198902664</v>
+        <v>0.0007195443711251289</v>
       </c>
       <c r="H22">
-        <v>1.985308240952378</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8145364796286287</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.736234468374917</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.7942822226367099</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.801869319414379</v>
+        <v>8.816669393043071</v>
       </c>
       <c r="C23">
-        <v>0.6847924063970368</v>
+        <v>2.596503970566118</v>
       </c>
       <c r="D23">
-        <v>0.0229944036988492</v>
+        <v>0.08109359149541717</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.616548931867726</v>
+        <v>5.554156148751758</v>
       </c>
       <c r="G23">
-        <v>0.959277347959457</v>
+        <v>0.0007249197564658709</v>
       </c>
       <c r="H23">
-        <v>1.900384485619242</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7798864030332879</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.551380274363439</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.8020637106195068</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.692443130776951</v>
+        <v>7.368831837882169</v>
       </c>
       <c r="C24">
-        <v>0.5882633231860268</v>
+        <v>2.162977221542747</v>
       </c>
       <c r="D24">
-        <v>0.02055275796254463</v>
+        <v>0.06971537322280597</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.028584317336055</v>
+        <v>4.724367548097604</v>
       </c>
       <c r="G24">
-        <v>0.7984056458356292</v>
+        <v>0.000745123954963487</v>
       </c>
       <c r="H24">
-        <v>1.597630260390645</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6550136317534481</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.898042816448424</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.8402296407105183</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.559081187404047</v>
+        <v>5.90210963999715</v>
       </c>
       <c r="C25">
-        <v>0.4863604253989138</v>
+        <v>1.724778433231279</v>
       </c>
       <c r="D25">
-        <v>0.01900947503392558</v>
+        <v>0.057855677578317</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.449291042031575</v>
+        <v>3.911974134693054</v>
       </c>
       <c r="G25">
-        <v>0.6401990370948454</v>
+        <v>0.0007668887464667788</v>
       </c>
       <c r="H25">
-        <v>1.301328446704161</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.530552582070186</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.263050932881768</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8962727241707995</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.878435906048537</v>
+        <v>3.512031540792691</v>
       </c>
       <c r="C2">
-        <v>1.419359170793882</v>
+        <v>0.9341249656562809</v>
       </c>
       <c r="D2">
-        <v>0.0493753956032208</v>
+        <v>0.3765017410675995</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.364514422397832</v>
+        <v>0.7366511795664081</v>
       </c>
       <c r="G2">
-        <v>0.0007831301700302475</v>
+        <v>0.0007875904024139547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4450678303847155</v>
+        <v>0.442622320753884</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9474436032819966</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.284999006791622</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.209824307892745</v>
+        <v>3.052177365454384</v>
       </c>
       <c r="C3">
-        <v>1.21997299302086</v>
+        <v>0.8164323192100653</v>
       </c>
       <c r="D3">
-        <v>0.04374483169157628</v>
+        <v>0.3325675463547526</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.017157484270172</v>
+        <v>0.6886543867782109</v>
       </c>
       <c r="G3">
-        <v>0.0007943666924947983</v>
+        <v>0.0007926563222920846</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3899433402805386</v>
+        <v>0.3900680312057148</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9871822456816162</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.235857779629157</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.808974947991999</v>
+        <v>2.77054456465072</v>
       </c>
       <c r="C4">
-        <v>1.100442282339031</v>
+        <v>0.7442570200699095</v>
       </c>
       <c r="D4">
-        <v>0.04033414402294255</v>
+        <v>0.3058441696332039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.813375446937243</v>
+        <v>0.6615255274342644</v>
       </c>
       <c r="G4">
-        <v>0.0008014052308880976</v>
+        <v>0.0007958586431171258</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3572019334650349</v>
+        <v>0.3584251178746314</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.013772867638032</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.211519250707255</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.647705392933233</v>
+        <v>2.655904183221992</v>
       </c>
       <c r="C5">
-        <v>1.052348914389427</v>
+        <v>0.7148554104329321</v>
       </c>
       <c r="D5">
-        <v>0.03895453984377184</v>
+        <v>0.2950103963607518</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.732436656219903</v>
+        <v>0.6510186753358695</v>
       </c>
       <c r="G5">
-        <v>0.0008043119192433648</v>
+        <v>0.000797187339347293</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3441009558547137</v>
+        <v>0.3456718397137166</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.025119705831926</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.202972079991753</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.621042685717953</v>
+        <v>2.636874428170188</v>
       </c>
       <c r="C6">
-        <v>1.044397258460776</v>
+        <v>0.7099735961028557</v>
       </c>
       <c r="D6">
-        <v>0.03872604014771497</v>
+        <v>0.2932146493696735</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.719116194479454</v>
+        <v>0.6493060067163583</v>
       </c>
       <c r="G6">
-        <v>0.0008047969863340361</v>
+        <v>0.0007974094191309893</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3419391379665484</v>
+        <v>0.3435622676369832</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02703361470374</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.201632930478198</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.806792029784958</v>
+        <v>2.768998037144513</v>
       </c>
       <c r="C7">
-        <v>1.099791320615736</v>
+        <v>0.7438604724977154</v>
       </c>
       <c r="D7">
-        <v>0.04031549833149484</v>
+        <v>0.30569784317602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.812275711622561</v>
+        <v>0.661381659581906</v>
       </c>
       <c r="G7">
-        <v>0.0008014442716469071</v>
+        <v>0.0007958764656428542</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3570243169509837</v>
+        <v>0.3582525701269503</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.013923875858019</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.211398552396446</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.645663091899792</v>
+        <v>3.353290822564645</v>
       </c>
       <c r="C8">
-        <v>1.349939290387908</v>
+        <v>0.8935187326113407</v>
       </c>
       <c r="D8">
-        <v>0.04742341960643159</v>
+        <v>0.3612963187912044</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.242593535746636</v>
+        <v>0.7195908461544249</v>
       </c>
       <c r="G8">
-        <v>0.0007869777871306558</v>
+        <v>0.0007893184667502466</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4258081852273392</v>
+        <v>0.4243618694862334</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9606652252151733</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.266784489396315</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.385938521500634</v>
+        <v>4.507478472047296</v>
       </c>
       <c r="C9">
-        <v>1.869236060034609</v>
+        <v>1.188297018545029</v>
       </c>
       <c r="D9">
-        <v>0.0618053864578556</v>
+        <v>0.4726852540285904</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.176554281377065</v>
+        <v>0.8542745253382122</v>
       </c>
       <c r="G9">
-        <v>0.0007595378849850299</v>
+        <v>0.0007771560806464707</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5713658796754544</v>
+        <v>0.5597425010736146</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8756863497992384</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.426340592838869</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.752930242266757</v>
+        <v>5.364720162488538</v>
       </c>
       <c r="C10">
-        <v>2.277883105254887</v>
+        <v>1.40659231628274</v>
       </c>
       <c r="D10">
-        <v>0.07276544052567147</v>
+        <v>0.5565091753111915</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.941959902673915</v>
+        <v>0.9686959031605085</v>
       </c>
       <c r="G10">
-        <v>0.0007396555548574847</v>
+        <v>0.0007685994949687893</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6879552308253807</v>
+        <v>0.6638869587800968</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8285397423540388</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.581618670545737</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.402449016674382</v>
+        <v>5.75773857955835</v>
       </c>
       <c r="C11">
-        <v>2.472360177658402</v>
+        <v>1.506505966217901</v>
       </c>
       <c r="D11">
-        <v>0.07787126437713709</v>
+        <v>0.5952090709974698</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.31413765021901</v>
+        <v>1.024831421716186</v>
       </c>
       <c r="G11">
-        <v>0.0007305910673217079</v>
+        <v>0.0007647779751275658</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7439684359102614</v>
+        <v>0.7125726008595592</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8113716286192698</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.662235463770998</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.65325757604802</v>
+        <v>5.907096888208628</v>
       </c>
       <c r="C12">
-        <v>2.547517137680984</v>
+        <v>1.544449433355169</v>
       </c>
       <c r="D12">
-        <v>0.07982550283337986</v>
+        <v>0.6099576785796899</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.459225061123078</v>
+        <v>1.046742492104528</v>
       </c>
       <c r="G12">
-        <v>0.0007271474828208026</v>
+        <v>0.0007633400476963722</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7656986318937271</v>
+        <v>0.7312237652395339</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8055865370039896</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.69435626628615</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.599009998854228</v>
+        <v>5.874904746544587</v>
       </c>
       <c r="C13">
-        <v>2.531258406021891</v>
+        <v>1.536272460192151</v>
       </c>
       <c r="D13">
-        <v>0.07940363523065486</v>
+        <v>0.6067769248944899</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.427780527816395</v>
+        <v>1.041993349774359</v>
       </c>
       <c r="G13">
-        <v>0.0007278897605147715</v>
+        <v>0.0007636493387688911</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7609938982980253</v>
+        <v>0.7271968904541808</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8067987824642131</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.687364955062264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.422980373566872</v>
+        <v>5.770015184665681</v>
       </c>
       <c r="C14">
-        <v>2.478511268224793</v>
+        <v>1.509625301462279</v>
       </c>
       <c r="D14">
-        <v>0.07803160180733215</v>
+        <v>0.5964204944081928</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.325986343953758</v>
+        <v>1.026620553451238</v>
       </c>
       <c r="G14">
-        <v>0.0007303080359687482</v>
+        <v>0.0007646594976053078</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.74574519712192</v>
+        <v>0.7141025732653645</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8108806827517725</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.664845178611444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.315817564131009</v>
+        <v>5.705839285986656</v>
       </c>
       <c r="C15">
-        <v>2.44640836338499</v>
+        <v>1.493317902690194</v>
       </c>
       <c r="D15">
-        <v>0.07719401311697993</v>
+        <v>0.5900894763712188</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.264198384301324</v>
+        <v>1.017291489168997</v>
       </c>
       <c r="G15">
-        <v>0.0007317875883245417</v>
+        <v>0.0007652794159234655</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7364755680753206</v>
+        <v>0.7061107557295401</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8134775633514977</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.651263555953875</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.711110076966406</v>
+        <v>5.339104578248168</v>
       </c>
       <c r="C16">
-        <v>2.265368830302521</v>
+        <v>1.400076715853515</v>
       </c>
       <c r="D16">
-        <v>0.07243446345384541</v>
+        <v>0.5539924855913796</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.918176878367888</v>
+        <v>0.9651150447038219</v>
       </c>
       <c r="G16">
-        <v>0.0007402468746000314</v>
+        <v>0.000768850583888979</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6843619166107118</v>
+        <v>0.6607338113106778</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8297559881513479</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.576564158817945</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.347796560534789</v>
+        <v>5.114969517176064</v>
       </c>
       <c r="C17">
-        <v>2.15668638014921</v>
+        <v>1.343046548667644</v>
       </c>
       <c r="D17">
-        <v>0.06954767285616015</v>
+        <v>0.5320018938513442</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.712506306660174</v>
+        <v>0.9341979954872954</v>
       </c>
       <c r="G17">
-        <v>0.0007454259193535555</v>
+        <v>0.0007710588593448716</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6532135819382177</v>
+        <v>0.6332501402483928</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8409038778257951</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.533402397976744</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.141371444428614</v>
+        <v>4.986334522013919</v>
       </c>
       <c r="C18">
-        <v>2.094963277379918</v>
+        <v>1.310300373051575</v>
       </c>
       <c r="D18">
-        <v>0.06789832039740418</v>
+        <v>0.5194061567588051</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.596419004613352</v>
+        <v>0.9167954701388936</v>
       </c>
       <c r="G18">
-        <v>0.0007484034670981391</v>
+        <v>0.0007723357404183932</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6355716090272949</v>
+        <v>0.6175638054146475</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8477115451555193</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.509505983343104</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.07189236870056</v>
+        <v>4.942826635036226</v>
       </c>
       <c r="C19">
-        <v>2.074192646257757</v>
+        <v>1.299222114887755</v>
       </c>
       <c r="D19">
-        <v>0.06734168005220909</v>
+        <v>0.5151501516693884</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.55747401390002</v>
+        <v>0.9109666402759444</v>
       </c>
       <c r="G19">
-        <v>0.000749411614885638</v>
+        <v>0.0007727692569711082</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6296428577828408</v>
+        <v>0.61227278792812</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.850081711751443</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.501570065575294</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.386202913756392</v>
+        <v>5.138799301304914</v>
       </c>
       <c r="C20">
-        <v>2.168172395827412</v>
+        <v>1.349111561570226</v>
       </c>
       <c r="D20">
-        <v>0.06985380937543084</v>
+        <v>0.5343372945825422</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.734167018612339</v>
+        <v>0.9374493633543324</v>
       </c>
       <c r="G20">
-        <v>0.0007448747903009423</v>
+        <v>0.0007708230941308194</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6565004418052496</v>
+        <v>0.6361630597668295</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8396755461852621</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.537899786975316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.474545102221896</v>
+        <v>5.800808613719425</v>
       </c>
       <c r="C21">
-        <v>2.493960820499979</v>
+        <v>1.517449103185527</v>
       </c>
       <c r="D21">
-        <v>0.07843400602706652</v>
+        <v>0.5994597810733353</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.35576678488934</v>
+        <v>1.031117612890455</v>
       </c>
       <c r="G21">
-        <v>0.0007295981033759325</v>
+        <v>0.0007643625481971125</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7502091988826294</v>
+        <v>0.7179426322677784</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8096613886781796</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.671415217817895</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.214648371479143</v>
+        <v>6.236612655162901</v>
       </c>
       <c r="C22">
-        <v>2.715873386155408</v>
+        <v>1.628109968594629</v>
       </c>
       <c r="D22">
-        <v>0.08416491498152112</v>
+        <v>0.64257429672017</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.786653648816952</v>
+        <v>1.096181364942865</v>
       </c>
       <c r="G22">
-        <v>0.0007195443711251289</v>
+        <v>0.0007601932993026545</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8145364796286287</v>
+        <v>0.7726576104651883</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7942822226367099</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.768044659357344</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.816669393043071</v>
+        <v>6.003695700232583</v>
       </c>
       <c r="C23">
-        <v>2.596503970566118</v>
+        <v>1.568982030537029</v>
       </c>
       <c r="D23">
-        <v>0.08109359149541717</v>
+        <v>0.6195083349305435</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.554156148751758</v>
+        <v>1.061080078468549</v>
       </c>
       <c r="G23">
-        <v>0.0007249197564658709</v>
+        <v>0.0007624140014237689</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7798864030332879</v>
+        <v>0.7433297434056101</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8020637106195068</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.715558269963992</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.368831837882169</v>
+        <v>5.128025167372414</v>
       </c>
       <c r="C24">
-        <v>2.162977221542747</v>
+        <v>1.346369442356433</v>
       </c>
       <c r="D24">
-        <v>0.06971537322280597</v>
+        <v>0.5332813145844568</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.724367548097604</v>
+        <v>0.9359782658820848</v>
       </c>
       <c r="G24">
-        <v>0.000745123954963487</v>
+        <v>0.0007709296607841106</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6550136317534481</v>
+        <v>0.6348457745213665</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8402296407105183</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.535863670242634</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.90210963999715</v>
+        <v>4.193935941633697</v>
       </c>
       <c r="C25">
-        <v>1.724778433231279</v>
+        <v>1.108321783704014</v>
       </c>
       <c r="D25">
-        <v>0.057855677578317</v>
+        <v>0.4422451714458475</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.911974134693054</v>
+        <v>0.8153506602305498</v>
       </c>
       <c r="G25">
-        <v>0.0007668887464667788</v>
+        <v>0.0007803761911280532</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.530552582070186</v>
+        <v>0.5223881371015437</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8962727241707995</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.377035119518666</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.512031540792691</v>
+        <v>1.311598390708582</v>
       </c>
       <c r="C2">
-        <v>0.9341249656562809</v>
+        <v>0.3005202967778189</v>
       </c>
       <c r="D2">
-        <v>0.3765017410675995</v>
+        <v>0.3346124636407239</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7366511795664081</v>
+        <v>1.190122002744133</v>
       </c>
       <c r="G2">
-        <v>0.0007875904024139547</v>
+        <v>0.00242772139124496</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.442622320753884</v>
+        <v>0.3481897139701431</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.284999006791622</v>
+        <v>2.474416872065831</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.052177365454384</v>
+        <v>1.168688641629558</v>
       </c>
       <c r="C3">
-        <v>0.8164323192100653</v>
+        <v>0.262312094503045</v>
       </c>
       <c r="D3">
-        <v>0.3325675463547526</v>
+        <v>0.3234465911793052</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6886543867782109</v>
+        <v>1.193232468511795</v>
       </c>
       <c r="G3">
-        <v>0.0007926563222920846</v>
+        <v>0.00243096625166983</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3900680312057148</v>
+        <v>0.3367139205240051</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.235857779629157</v>
+        <v>2.500455950125939</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.77054456465072</v>
+        <v>1.080820142514312</v>
       </c>
       <c r="C4">
-        <v>0.7442570200699095</v>
+        <v>0.2387608191005484</v>
       </c>
       <c r="D4">
-        <v>0.3058441696332039</v>
+        <v>0.3166970551531136</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6615255274342644</v>
+        <v>1.196137627189934</v>
       </c>
       <c r="G4">
-        <v>0.0007958586431171258</v>
+        <v>0.002433063037825783</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3584251178746314</v>
+        <v>0.3298786986282209</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.211519250707255</v>
+        <v>2.518845044920113</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.655904183221992</v>
+        <v>1.044984344992997</v>
       </c>
       <c r="C5">
-        <v>0.7148554104329321</v>
+        <v>0.2291411008859541</v>
       </c>
       <c r="D5">
-        <v>0.2950103963607518</v>
+        <v>0.313973437465819</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6510186753358695</v>
+        <v>1.197571135273634</v>
       </c>
       <c r="G5">
-        <v>0.000797187339347293</v>
+        <v>0.002433943835923612</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3456718397137166</v>
+        <v>0.3271462053172769</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.202972079991753</v>
+        <v>2.526940535921796</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.636874428170188</v>
+        <v>1.039032161265823</v>
       </c>
       <c r="C6">
-        <v>0.7099735961028557</v>
+        <v>0.2275424191884383</v>
       </c>
       <c r="D6">
-        <v>0.2932146493696735</v>
+        <v>0.3135228097385863</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6493060067163583</v>
+        <v>1.197824226379367</v>
       </c>
       <c r="G6">
-        <v>0.0007974094191309893</v>
+        <v>0.002434091685296291</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3435622676369832</v>
+        <v>0.3266956689824809</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.201632930478198</v>
+        <v>2.528321074830217</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.768998037144513</v>
+        <v>1.080336962042509</v>
       </c>
       <c r="C7">
-        <v>0.7438604724977154</v>
+        <v>0.2386311740741291</v>
       </c>
       <c r="D7">
-        <v>0.30569784317602</v>
+        <v>0.3166602145109465</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.661381659581906</v>
+        <v>1.196155950094919</v>
       </c>
       <c r="G7">
-        <v>0.0007958764656428542</v>
+        <v>0.00243307480984067</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3582525701269503</v>
+        <v>0.32984163319</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.211398552396446</v>
+        <v>2.518951789554947</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.353290822564645</v>
+        <v>1.262349343736958</v>
       </c>
       <c r="C8">
-        <v>0.8935187326113407</v>
+        <v>0.2873653838335599</v>
       </c>
       <c r="D8">
-        <v>0.3612963187912044</v>
+        <v>0.3307404698984442</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7195908461544249</v>
+        <v>1.190987519090967</v>
       </c>
       <c r="G8">
-        <v>0.0007893184667502466</v>
+        <v>0.002428818594244562</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4243618694862334</v>
+        <v>0.3441889906122242</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.266784489396315</v>
+        <v>2.482895636946296</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.507478472047296</v>
+        <v>1.618250140937505</v>
       </c>
       <c r="C9">
-        <v>1.188297018545029</v>
+        <v>0.3821884631859689</v>
       </c>
       <c r="D9">
-        <v>0.4726852540285904</v>
+        <v>0.3591917247409526</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8542745253382122</v>
+        <v>1.188780480485704</v>
       </c>
       <c r="G9">
-        <v>0.0007771560806464707</v>
+        <v>0.002421297031063738</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5597425010736146</v>
+        <v>0.3740059142762249</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.426340592838869</v>
+        <v>2.4313300778837</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.364720162488538</v>
+        <v>1.879049551238495</v>
       </c>
       <c r="C10">
-        <v>1.40659231628274</v>
+        <v>0.4513810373882734</v>
       </c>
       <c r="D10">
-        <v>0.5565091753111915</v>
+        <v>0.3806041138337264</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9686959031605085</v>
+        <v>1.19203713586829</v>
       </c>
       <c r="G10">
-        <v>0.0007685994949687893</v>
+        <v>0.002416268554526597</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6638869587800968</v>
+        <v>0.3969513992574747</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.581618670545737</v>
+        <v>2.405238934135951</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.75773857955835</v>
+        <v>1.997536375466041</v>
       </c>
       <c r="C11">
-        <v>1.506505966217901</v>
+        <v>0.4827519515910694</v>
       </c>
       <c r="D11">
-        <v>0.5952090709974698</v>
+        <v>0.3904553423558923</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.024831421716186</v>
+        <v>1.194587731997487</v>
       </c>
       <c r="G11">
-        <v>0.0007647779751275658</v>
+        <v>0.002414087904734604</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7125726008595592</v>
+        <v>0.4076186414031469</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.662235463770998</v>
+        <v>2.395957484163432</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.907096888208628</v>
+        <v>2.042381012937426</v>
       </c>
       <c r="C12">
-        <v>1.544449433355169</v>
+        <v>0.4946157355812488</v>
       </c>
       <c r="D12">
-        <v>0.6099576785796899</v>
+        <v>0.3942015686634761</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.046742492104528</v>
+        <v>1.1957080714743</v>
       </c>
       <c r="G12">
-        <v>0.0007633400476963722</v>
+        <v>0.002413277426679816</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7312237652395339</v>
+        <v>0.4116912082536146</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.69435626628615</v>
+        <v>2.392817111461227</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.874904746544587</v>
+        <v>2.032724003744647</v>
       </c>
       <c r="C13">
-        <v>1.536272460192151</v>
+        <v>0.4920613648747576</v>
       </c>
       <c r="D13">
-        <v>0.6067769248944899</v>
+        <v>0.3933940520021793</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.041993349774359</v>
+        <v>1.195459903735269</v>
       </c>
       <c r="G13">
-        <v>0.0007636493387688911</v>
+        <v>0.002413451298949089</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7271968904541808</v>
+        <v>0.4108126329469997</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.687364955062264</v>
+        <v>2.393476763890959</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.770015184665681</v>
+        <v>2.001226257417784</v>
       </c>
       <c r="C14">
-        <v>1.509625301462279</v>
+        <v>0.483728310198785</v>
       </c>
       <c r="D14">
-        <v>0.5964204944081928</v>
+        <v>0.39076323112252</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.026620553451238</v>
+        <v>1.194676802641709</v>
       </c>
       <c r="G14">
-        <v>0.0007646594976053078</v>
+        <v>0.002414020920348627</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7141025732653645</v>
+        <v>0.4079530294072811</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.664845178611444</v>
+        <v>2.395691609315577</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.705839285986656</v>
+        <v>1.981929830090337</v>
       </c>
       <c r="C15">
-        <v>1.493317902690194</v>
+        <v>0.4786220118327833</v>
       </c>
       <c r="D15">
-        <v>0.5900894763712188</v>
+        <v>0.3891538286117111</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.017291489168997</v>
+        <v>1.194217271110304</v>
       </c>
       <c r="G15">
-        <v>0.0007652794159234655</v>
+        <v>0.002414371818255173</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7061107557295401</v>
+        <v>0.4062057565757158</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.651263555953875</v>
+        <v>2.397097078473053</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.339104578248168</v>
+        <v>1.87130293631094</v>
       </c>
       <c r="C16">
-        <v>1.400076715853515</v>
+        <v>0.4493287088046145</v>
       </c>
       <c r="D16">
-        <v>0.5539924855913796</v>
+        <v>0.3799625279670806</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9651150447038219</v>
+        <v>1.191892025653104</v>
       </c>
       <c r="G16">
-        <v>0.000768850583888979</v>
+        <v>0.002416413208321719</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6607338113106778</v>
+        <v>0.3962588954138226</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.576564158817945</v>
+        <v>2.405897756937719</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.114969517176064</v>
+        <v>1.803396610921254</v>
       </c>
       <c r="C17">
-        <v>1.343046548667644</v>
+        <v>0.4313308714013715</v>
       </c>
       <c r="D17">
-        <v>0.5320018938513442</v>
+        <v>0.3743522048962689</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9341979954872954</v>
+        <v>1.190739921925399</v>
       </c>
       <c r="G17">
-        <v>0.0007710588593448716</v>
+        <v>0.002417692842858651</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6332501402483928</v>
+        <v>0.3902156357722504</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.533402397976744</v>
+        <v>2.411961003431259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.986334522013919</v>
+        <v>1.764324478939955</v>
       </c>
       <c r="C18">
-        <v>1.310300373051575</v>
+        <v>0.4209691297555196</v>
       </c>
       <c r="D18">
-        <v>0.5194061567588051</v>
+        <v>0.3711357155619055</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9167954701388936</v>
+        <v>1.190177849090645</v>
       </c>
       <c r="G18">
-        <v>0.0007723357404183932</v>
+        <v>0.002418438914727669</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6175638054146475</v>
+        <v>0.3867612793695372</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.509505983343104</v>
+        <v>2.415691841110771</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.942826635036226</v>
+        <v>1.751092943506762</v>
       </c>
       <c r="C19">
-        <v>1.299222114887755</v>
+        <v>0.4174591462287935</v>
       </c>
       <c r="D19">
-        <v>0.5151501516693884</v>
+        <v>0.3700484611321997</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9109666402759444</v>
+        <v>1.190004794075008</v>
       </c>
       <c r="G19">
-        <v>0.0007727692569711082</v>
+        <v>0.002418693251878007</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.61227278792812</v>
+        <v>0.3855953931570468</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.501570065575294</v>
+        <v>2.416996778234534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.138799301304914</v>
+        <v>1.810626839512167</v>
       </c>
       <c r="C20">
-        <v>1.349111561570226</v>
+        <v>0.4332477968062562</v>
       </c>
       <c r="D20">
-        <v>0.5343372945825422</v>
+        <v>0.3749483558571285</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9374493633543324</v>
+        <v>1.190852149582483</v>
       </c>
       <c r="G20">
-        <v>0.0007708230941308194</v>
+        <v>0.002417555583106577</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6361630597668295</v>
+        <v>0.3908567179156108</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.537899786975316</v>
+        <v>2.41129035143635</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.800808613719425</v>
+        <v>2.010478568418932</v>
       </c>
       <c r="C21">
-        <v>1.517449103185527</v>
+        <v>0.4861763610482512</v>
       </c>
       <c r="D21">
-        <v>0.5994597810733353</v>
+        <v>0.3915355397358837</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.031117612890455</v>
+        <v>1.194902619823495</v>
       </c>
       <c r="G21">
-        <v>0.0007643625481971125</v>
+        <v>0.00241385319436178</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7179426322677784</v>
+        <v>0.4087920643737419</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.671415217817895</v>
+        <v>2.395030879097249</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.236612655162901</v>
+        <v>2.140953937465497</v>
       </c>
       <c r="C22">
-        <v>1.628109968594629</v>
+        <v>0.5206764602758085</v>
       </c>
       <c r="D22">
-        <v>0.64257429672017</v>
+        <v>0.402468142412971</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.096181364942865</v>
+        <v>1.198450633700233</v>
       </c>
       <c r="G22">
-        <v>0.0007601932993026545</v>
+        <v>0.002411522537861887</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7726576104651883</v>
+        <v>0.4207069336947455</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.768044659357344</v>
+        <v>2.386587177516077</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.003695700232583</v>
+        <v>2.071330133617721</v>
       </c>
       <c r="C23">
-        <v>1.568982030537029</v>
+        <v>0.5022716954971997</v>
       </c>
       <c r="D23">
-        <v>0.6195083349305435</v>
+        <v>0.3966248377690818</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.061080078468549</v>
+        <v>1.19647432267881</v>
       </c>
       <c r="G23">
-        <v>0.0007624140014237689</v>
+        <v>0.00241275832808942</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7433297434056101</v>
+        <v>0.4143300261512479</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.715558269963992</v>
+        <v>2.390893278012015</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.128025167372414</v>
+        <v>1.8073581523347</v>
       </c>
       <c r="C24">
-        <v>1.346369442356433</v>
+        <v>0.432381200099087</v>
       </c>
       <c r="D24">
-        <v>0.5332813145844568</v>
+        <v>0.3746788080900956</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9359782658820848</v>
+        <v>1.190801099120463</v>
       </c>
       <c r="G24">
-        <v>0.0007709296607841106</v>
+        <v>0.002417617605982593</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6348457745213665</v>
+        <v>0.3905668224155363</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.535863670242634</v>
+        <v>2.411592790201325</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.193935941633697</v>
+        <v>1.522085190698135</v>
       </c>
       <c r="C25">
-        <v>1.108321783704014</v>
+        <v>0.356618126746298</v>
       </c>
       <c r="D25">
-        <v>0.4422451714458475</v>
+        <v>0.3514052827185594</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8153506602305498</v>
+        <v>1.18852413003232</v>
       </c>
       <c r="G25">
-        <v>0.0007803761911280532</v>
+        <v>0.002423244049824302</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5223881371015437</v>
+        <v>0.3657581849121527</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.377035119518666</v>
+        <v>2.443217832025681</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.311598390708582</v>
+        <v>3.512031540792862</v>
       </c>
       <c r="C2">
-        <v>0.3005202967778189</v>
+        <v>0.9341249656562525</v>
       </c>
       <c r="D2">
-        <v>0.3346124636407239</v>
+        <v>0.3765017410675568</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.190122002744133</v>
+        <v>0.7366511795664081</v>
       </c>
       <c r="G2">
-        <v>0.00242772139124496</v>
+        <v>0.0007875904024726787</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3481897139701431</v>
+        <v>0.4426223207538129</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.474416872065831</v>
+        <v>1.284999006791566</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.168688641629558</v>
+        <v>3.052177365454497</v>
       </c>
       <c r="C3">
-        <v>0.262312094503045</v>
+        <v>0.8164323192100937</v>
       </c>
       <c r="D3">
-        <v>0.3234465911793052</v>
+        <v>0.3325675463549373</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.193232468511795</v>
+        <v>0.688654386778218</v>
       </c>
       <c r="G3">
-        <v>0.00243096625166983</v>
+        <v>0.0007926563222754472</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3367139205240051</v>
+        <v>0.3900680312057005</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.500455950125939</v>
+        <v>1.235857779629072</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.080820142514312</v>
+        <v>2.770544564650891</v>
       </c>
       <c r="C4">
-        <v>0.2387608191005484</v>
+        <v>0.7442570200701368</v>
       </c>
       <c r="D4">
-        <v>0.3166970551531136</v>
+        <v>0.3058441696330334</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.196137627189934</v>
+        <v>0.661525527434236</v>
       </c>
       <c r="G4">
-        <v>0.002433063037825783</v>
+        <v>0.0007958586431965867</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3298786986282209</v>
+        <v>0.358425117874603</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.518845044920113</v>
+        <v>1.211519250707241</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.044984344992997</v>
+        <v>2.655904183221992</v>
       </c>
       <c r="C5">
-        <v>0.2291411008859541</v>
+        <v>0.7148554104326763</v>
       </c>
       <c r="D5">
-        <v>0.313973437465819</v>
+        <v>0.2950103963609934</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.197571135273634</v>
+        <v>0.6510186753358553</v>
       </c>
       <c r="G5">
-        <v>0.002433943835923612</v>
+        <v>0.0007971873392902951</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3271462053172769</v>
+        <v>0.345671839713745</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.526940535921796</v>
+        <v>1.202972079991682</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.039032161265823</v>
+        <v>2.636874428170131</v>
       </c>
       <c r="C6">
-        <v>0.2275424191884383</v>
+        <v>0.7099735961025715</v>
       </c>
       <c r="D6">
-        <v>0.3135228097385863</v>
+        <v>0.293214649369375</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.197824226379367</v>
+        <v>0.6493060067163654</v>
       </c>
       <c r="G6">
-        <v>0.002434091685296291</v>
+        <v>0.0007974094191308685</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3266956689824809</v>
+        <v>0.3435622676370969</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.528321074830217</v>
+        <v>1.201632930478198</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.080336962042509</v>
+        <v>2.768998037144456</v>
       </c>
       <c r="C7">
-        <v>0.2386311740741291</v>
+        <v>0.7438604724977154</v>
       </c>
       <c r="D7">
-        <v>0.3166602145109465</v>
+        <v>0.3056978431760768</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.196155950094919</v>
+        <v>0.661381659581906</v>
       </c>
       <c r="G7">
-        <v>0.00243307480984067</v>
+        <v>0.0007958764656418819</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.32984163319</v>
+        <v>0.3582525701267798</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.518951789554947</v>
+        <v>1.211398552396417</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.262349343736958</v>
+        <v>3.353290822564816</v>
       </c>
       <c r="C8">
-        <v>0.2873653838335599</v>
+        <v>0.8935187326115397</v>
       </c>
       <c r="D8">
-        <v>0.3307404698984442</v>
+        <v>0.3612963187913323</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.190987519090967</v>
+        <v>0.7195908461544391</v>
       </c>
       <c r="G8">
-        <v>0.002428818594244562</v>
+        <v>0.0007893184667135126</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3441889906122242</v>
+        <v>0.4243618694861908</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.482895636946296</v>
+        <v>1.266784489396372</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.618250140937505</v>
+        <v>4.507478472047183</v>
       </c>
       <c r="C9">
-        <v>0.3821884631859689</v>
+        <v>1.188297018545029</v>
       </c>
       <c r="D9">
-        <v>0.3591917247409526</v>
+        <v>0.4726852540286473</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.188780480485704</v>
+        <v>0.854274525338198</v>
       </c>
       <c r="G9">
-        <v>0.002421297031063738</v>
+        <v>0.0007771560806454081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3740059142762249</v>
+        <v>0.5597425010736004</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.4313300778837</v>
+        <v>1.426340592838898</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.879049551238495</v>
+        <v>5.364720162488368</v>
       </c>
       <c r="C10">
-        <v>0.4513810373882734</v>
+        <v>1.40659231628274</v>
       </c>
       <c r="D10">
-        <v>0.3806041138337264</v>
+        <v>0.5565091753111346</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.19203713586829</v>
+        <v>0.96869590316048</v>
       </c>
       <c r="G10">
-        <v>0.002416268554526597</v>
+        <v>0.0007685994949694228</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3969513992574747</v>
+        <v>0.66388695878004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.405238934135951</v>
+        <v>1.58161867054568</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.997536375466041</v>
+        <v>5.757738579558634</v>
       </c>
       <c r="C11">
-        <v>0.4827519515910694</v>
+        <v>1.506505966218072</v>
       </c>
       <c r="D11">
-        <v>0.3904553423558923</v>
+        <v>0.5952090709974982</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.194587731997487</v>
+        <v>1.024831421716186</v>
       </c>
       <c r="G11">
-        <v>0.002414087904734604</v>
+        <v>0.0007647779750988713</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4076186414031469</v>
+        <v>0.7125726008595308</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.395957484163432</v>
+        <v>1.662235463771026</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.042381012937426</v>
+        <v>5.907096888208343</v>
       </c>
       <c r="C12">
-        <v>0.4946157355812488</v>
+        <v>1.544449433355055</v>
       </c>
       <c r="D12">
-        <v>0.3942015686634761</v>
+        <v>0.6099576785797751</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.1957080714743</v>
+        <v>1.046742492104542</v>
       </c>
       <c r="G12">
-        <v>0.002413277426679816</v>
+        <v>0.0007633400476714238</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4116912082536146</v>
+        <v>0.7312237652393776</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.392817111461227</v>
+        <v>1.694356266286121</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.032724003744647</v>
+        <v>5.874904746544701</v>
       </c>
       <c r="C13">
-        <v>0.4920613648747576</v>
+        <v>1.536272460192322</v>
       </c>
       <c r="D13">
-        <v>0.3933940520021793</v>
+        <v>0.6067769248943762</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.195459903735269</v>
+        <v>1.041993349774344</v>
       </c>
       <c r="G13">
-        <v>0.002413451298949089</v>
+        <v>0.0007636493387983975</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4108126329469997</v>
+        <v>0.7271968904541524</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.393476763890959</v>
+        <v>1.687364955062264</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.001226257417784</v>
+        <v>5.770015184665624</v>
       </c>
       <c r="C14">
-        <v>0.483728310198785</v>
+        <v>1.509625301461995</v>
       </c>
       <c r="D14">
-        <v>0.39076323112252</v>
+        <v>0.5964204944081359</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.194676802641709</v>
+        <v>1.026620553451238</v>
       </c>
       <c r="G14">
-        <v>0.002414020920348627</v>
+        <v>0.0007646594975768484</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4079530294072811</v>
+        <v>0.7141025732654072</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.395691609315577</v>
+        <v>1.664845178611444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.981929830090337</v>
+        <v>5.705839285986428</v>
       </c>
       <c r="C15">
-        <v>0.4786220118327833</v>
+        <v>1.493317902690649</v>
       </c>
       <c r="D15">
-        <v>0.3891538286117111</v>
+        <v>0.5900894763711904</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.194217271110304</v>
+        <v>1.017291489168997</v>
       </c>
       <c r="G15">
-        <v>0.002414371818255173</v>
+        <v>0.0007652794159222232</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4062057565757158</v>
+        <v>0.7061107557295259</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.397097078473053</v>
+        <v>1.651263555953875</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.87130293631094</v>
+        <v>5.339104578247941</v>
       </c>
       <c r="C16">
-        <v>0.4493287088046145</v>
+        <v>1.400076715853459</v>
       </c>
       <c r="D16">
-        <v>0.3799625279670806</v>
+        <v>0.5539924855913227</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.191892025653104</v>
+        <v>0.9651150447038219</v>
       </c>
       <c r="G16">
-        <v>0.002416413208321719</v>
+        <v>0.0007688505839127558</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3962588954138226</v>
+        <v>0.6607338113105214</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.405897756937719</v>
+        <v>1.576564158817916</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.803396610921254</v>
+        <v>5.114969517176007</v>
       </c>
       <c r="C17">
-        <v>0.4313308714013715</v>
+        <v>1.343046548667587</v>
       </c>
       <c r="D17">
-        <v>0.3743522048962689</v>
+        <v>0.5320018938513726</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.190739921925399</v>
+        <v>0.9341979954873096</v>
       </c>
       <c r="G17">
-        <v>0.002417692842858651</v>
+        <v>0.0007710588593930552</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3902156357722504</v>
+        <v>0.6332501402484212</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.411961003431259</v>
+        <v>1.533402397976772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.764324478939955</v>
+        <v>4.986334522014033</v>
       </c>
       <c r="C18">
-        <v>0.4209691297555196</v>
+        <v>1.310300373051803</v>
       </c>
       <c r="D18">
-        <v>0.3711357155619055</v>
+        <v>0.5194061567586346</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.190177849090645</v>
+        <v>0.9167954701388794</v>
       </c>
       <c r="G18">
-        <v>0.002418438914727669</v>
+        <v>0.0007723357404953747</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3867612793695372</v>
+        <v>0.6175638054146049</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.415691841110771</v>
+        <v>1.509505983343132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.751092943506762</v>
+        <v>4.94282663503634</v>
       </c>
       <c r="C19">
-        <v>0.4174591462287935</v>
+        <v>1.299222114887414</v>
       </c>
       <c r="D19">
-        <v>0.3700484611321997</v>
+        <v>0.5151501516693031</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.190004794075008</v>
+        <v>0.9109666402759302</v>
       </c>
       <c r="G19">
-        <v>0.002418693251878007</v>
+        <v>0.0007727692569974016</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3855953931570468</v>
+        <v>0.612272787928049</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.416996778234534</v>
+        <v>1.501570065575208</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.810626839512167</v>
+        <v>5.138799301304971</v>
       </c>
       <c r="C20">
-        <v>0.4332477968062562</v>
+        <v>1.349111561570396</v>
       </c>
       <c r="D20">
-        <v>0.3749483558571285</v>
+        <v>0.5343372945825422</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.190852149582483</v>
+        <v>0.9374493633543324</v>
       </c>
       <c r="G20">
-        <v>0.002417555583106577</v>
+        <v>0.000770823094131471</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3908567179156108</v>
+        <v>0.6361630597667585</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.41129035143635</v>
+        <v>1.537899786975231</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.010478568418932</v>
+        <v>5.800808613719425</v>
       </c>
       <c r="C21">
-        <v>0.4861763610482512</v>
+        <v>1.517449103185641</v>
       </c>
       <c r="D21">
-        <v>0.3915355397358837</v>
+        <v>0.59945978107325</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.194902619823495</v>
+        <v>1.031117612890441</v>
       </c>
       <c r="G21">
-        <v>0.00241385319436178</v>
+        <v>0.000764362548197387</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4087920643737419</v>
+        <v>0.7179426322678353</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.395030879097249</v>
+        <v>1.671415217817838</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.140953937465497</v>
+        <v>6.236612655163128</v>
       </c>
       <c r="C22">
-        <v>0.5206764602758085</v>
+        <v>1.628109968594913</v>
       </c>
       <c r="D22">
-        <v>0.402468142412971</v>
+        <v>0.6425742967202552</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.198450633700233</v>
+        <v>1.096181364942865</v>
       </c>
       <c r="G22">
-        <v>0.002411522537861887</v>
+        <v>0.00076019329927483</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4207069336947455</v>
+        <v>0.7726576104652594</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.386587177516077</v>
+        <v>1.7680446593574</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.071330133617721</v>
+        <v>6.003695700232413</v>
       </c>
       <c r="C23">
-        <v>0.5022716954971997</v>
+        <v>1.568982030537029</v>
       </c>
       <c r="D23">
-        <v>0.3966248377690818</v>
+        <v>0.6195083349304014</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.19647432267881</v>
+        <v>1.061080078468535</v>
       </c>
       <c r="G23">
-        <v>0.00241275832808942</v>
+        <v>0.0007624140014511272</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4143300261512479</v>
+        <v>0.7433297434056243</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.390893278012015</v>
+        <v>1.715558269964049</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.8073581523347</v>
+        <v>5.128025167372641</v>
       </c>
       <c r="C24">
-        <v>0.432381200099087</v>
+        <v>1.346369442356433</v>
       </c>
       <c r="D24">
-        <v>0.3746788080900956</v>
+        <v>0.5332813145844284</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.190801099120463</v>
+        <v>0.9359782658820706</v>
       </c>
       <c r="G24">
-        <v>0.002417617605982593</v>
+        <v>0.0007709296607273668</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3905668224155363</v>
+        <v>0.6348457745214375</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.411592790201325</v>
+        <v>1.535863670242691</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.522085190698135</v>
+        <v>4.193935941633811</v>
       </c>
       <c r="C25">
-        <v>0.356618126746298</v>
+        <v>1.108321783704127</v>
       </c>
       <c r="D25">
-        <v>0.3514052827185594</v>
+        <v>0.4422451714458759</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.18852413003232</v>
+        <v>0.8153506602305356</v>
       </c>
       <c r="G25">
-        <v>0.002423244049824302</v>
+        <v>0.0007803761911070145</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3657581849121527</v>
+        <v>0.5223881371014443</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.443217832025681</v>
+        <v>1.377035119518609</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.512031540792862</v>
+        <v>2.822749202295086</v>
       </c>
       <c r="C2">
-        <v>0.9341249656562525</v>
+        <v>0.9614788761574573</v>
       </c>
       <c r="D2">
-        <v>0.3765017410675568</v>
+        <v>0.2767175078565032</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7366511795664081</v>
+        <v>1.408598306637757</v>
       </c>
       <c r="G2">
-        <v>0.0007875904024726787</v>
+        <v>0.9223593894628266</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007673538630890153</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002592180409469069</v>
       </c>
       <c r="J2">
-        <v>0.4426223207538129</v>
+        <v>0.5871337558215117</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4126316076062935</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5212797041709507</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.284999006791566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7135351973630151</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.052177365454497</v>
+        <v>2.455957239887937</v>
       </c>
       <c r="C3">
-        <v>0.8164323192100937</v>
+        <v>0.8356714250496111</v>
       </c>
       <c r="D3">
-        <v>0.3325675463549373</v>
+        <v>0.245392408638196</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.688654386778218</v>
+        <v>1.286228922624701</v>
       </c>
       <c r="G3">
-        <v>0.0007926563222754472</v>
+        <v>0.8379586001580321</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.923178587139091E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001313198610051636</v>
       </c>
       <c r="J3">
-        <v>0.3900680312057005</v>
+        <v>0.5521700609348983</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3965676120329391</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.459498197322489</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.235857779629072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7342630517728814</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.770544564650891</v>
+        <v>2.230281723343523</v>
       </c>
       <c r="C4">
-        <v>0.7442570200701368</v>
+        <v>0.7589633814358194</v>
       </c>
       <c r="D4">
-        <v>0.3058441696330334</v>
+        <v>0.2262479012355527</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.661525527434236</v>
+        <v>1.211850600625056</v>
       </c>
       <c r="G4">
-        <v>0.0007958586431965867</v>
+        <v>0.7868067739616151</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.634781228141094E-06</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008073644887036657</v>
       </c>
       <c r="J4">
-        <v>0.358425117874603</v>
+        <v>0.531123105327282</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3870005918597101</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4216379631896672</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.211519250707241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7476647841110626</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.655904183221992</v>
+        <v>2.136675398094894</v>
       </c>
       <c r="C5">
-        <v>0.7148554104326763</v>
+        <v>0.7285752984999476</v>
       </c>
       <c r="D5">
-        <v>0.2950103963609934</v>
+        <v>0.2186339207288768</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6510186753358553</v>
+        <v>1.180717436397273</v>
       </c>
       <c r="G5">
-        <v>0.0007971873392902951</v>
+        <v>0.7651626668646401</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.896367825546477E-05</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007281875672884297</v>
       </c>
       <c r="J5">
-        <v>0.345671839713745</v>
+        <v>0.5221619973232094</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3826128747642734</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4062030907704468</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.202972079991682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7535138135668795</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.636874428170131</v>
+        <v>2.119279639592264</v>
       </c>
       <c r="C6">
-        <v>0.7099735961025715</v>
+        <v>0.7244588001216812</v>
       </c>
       <c r="D6">
-        <v>0.293214649369375</v>
+        <v>0.2175775413699341</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6493060067163654</v>
+        <v>1.174344704005307</v>
       </c>
       <c r="G6">
-        <v>0.0007974094191308685</v>
+        <v>0.7604170376747561</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.130149985716926E-05</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0008014915406961975</v>
       </c>
       <c r="J6">
-        <v>0.3435622676370969</v>
+        <v>0.5200910119324931</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.381207408937442</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4036204088172042</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.201632930478198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7547714420188427</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.768998037144456</v>
+        <v>2.22396407943387</v>
       </c>
       <c r="C7">
-        <v>0.7438604724977154</v>
+        <v>0.7610794155898475</v>
       </c>
       <c r="D7">
-        <v>0.3056978431760768</v>
+        <v>0.226711335643941</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.661381659581906</v>
+        <v>1.208113014236986</v>
       </c>
       <c r="G7">
-        <v>0.0007958764656418819</v>
+        <v>0.7833397433924745</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5.180087725875637E-06</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001015392295610873</v>
       </c>
       <c r="J7">
-        <v>0.3582525701267798</v>
+        <v>0.5293926054184652</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3850796182895664</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4213746578916044</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.211398552396417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7485143899553677</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.353290822564816</v>
+        <v>2.689590676791681</v>
       </c>
       <c r="C8">
-        <v>0.8935187326115397</v>
+        <v>0.9213498455677893</v>
       </c>
       <c r="D8">
-        <v>0.3612963187913323</v>
+        <v>0.2666507166972281</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7195908461544391</v>
+        <v>1.361824054054438</v>
       </c>
       <c r="G8">
-        <v>0.0007893184667135126</v>
+        <v>0.8888833852381737</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0004585153634280026</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002333382612873969</v>
       </c>
       <c r="J8">
-        <v>0.4243618694861908</v>
+        <v>0.5728500880177307</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4045591808146511</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4998825134194647</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.266784489396372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7216323048162252</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.507478472047183</v>
+        <v>3.609147961137751</v>
       </c>
       <c r="C9">
-        <v>1.188297018545029</v>
+        <v>1.23618451827997</v>
       </c>
       <c r="D9">
-        <v>0.4726852540286473</v>
+        <v>0.3448369386455283</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.854274525338198</v>
+        <v>1.67632278748728</v>
       </c>
       <c r="G9">
-        <v>0.0007771560806454081</v>
+        <v>1.107835572763733</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.004219505657429456</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007067408212605208</v>
       </c>
       <c r="J9">
-        <v>0.5597425010736004</v>
+        <v>0.6647295746398925</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4487607231743524</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.6549394197761842</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.426340592838898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6730455217945135</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.364720162488368</v>
+        <v>4.263328620389132</v>
       </c>
       <c r="C10">
-        <v>1.40659231628274</v>
+        <v>1.461990571264039</v>
       </c>
       <c r="D10">
-        <v>0.5565091753111346</v>
+        <v>0.3916882368237964</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.96869590316048</v>
+        <v>1.881853825528253</v>
       </c>
       <c r="G10">
-        <v>0.0007685994949694228</v>
+        <v>1.255432182840394</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008889636139635115</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01233835052667764</v>
       </c>
       <c r="J10">
-        <v>0.66388695878004</v>
+        <v>0.7260524322674371</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4761797966285428</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.7362239310369745</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.58161867054568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6454783881740056</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.757738579558634</v>
+        <v>4.388964532383795</v>
       </c>
       <c r="C11">
-        <v>1.506505966218072</v>
+        <v>1.472732244771294</v>
       </c>
       <c r="D11">
-        <v>0.5952090709974982</v>
+        <v>0.3183908058273346</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.024831421716186</v>
+        <v>1.717637719934785</v>
       </c>
       <c r="G11">
-        <v>0.0007647779750988713</v>
+        <v>1.174059843161785</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02705849694661211</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01422412188601996</v>
       </c>
       <c r="J11">
-        <v>0.7125726008595308</v>
+        <v>0.6806921604905085</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4334744804278543</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.510024901169686</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.662235463771026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6733052691925607</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.907096888208343</v>
+        <v>4.362738846168327</v>
       </c>
       <c r="C12">
-        <v>1.544449433355055</v>
+        <v>1.429460209367221</v>
       </c>
       <c r="D12">
-        <v>0.6099576785797751</v>
+        <v>0.2536084389801658</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.046742492104542</v>
+        <v>1.546738764331565</v>
       </c>
       <c r="G12">
-        <v>0.0007633400476714238</v>
+        <v>1.081056140663847</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06485519204617418</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01429583449481964</v>
       </c>
       <c r="J12">
-        <v>0.7312237652393776</v>
+        <v>0.6326169235091328</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3957044321000609</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3431980961185133</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.694356266286121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7062295608777234</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.874904746544701</v>
+        <v>4.21036241518749</v>
       </c>
       <c r="C13">
-        <v>1.536272460192322</v>
+        <v>1.346575809612489</v>
       </c>
       <c r="D13">
-        <v>0.6067769248943762</v>
+        <v>0.1928830503427719</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.041993349774344</v>
+        <v>1.356541292745945</v>
       </c>
       <c r="G13">
-        <v>0.0007636493387983975</v>
+        <v>0.9690630223347227</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1193081247849079</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01324370443371503</v>
       </c>
       <c r="J13">
-        <v>0.7271968904541524</v>
+        <v>0.5772538710299386</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3566512627693541</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2130058178676393</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.687364955062264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.745296851824115</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.770015184665624</v>
+        <v>4.045911200991725</v>
       </c>
       <c r="C14">
-        <v>1.509625301461995</v>
+        <v>1.272030061168323</v>
       </c>
       <c r="D14">
-        <v>0.5964204944081359</v>
+        <v>0.1537579186106797</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.026620553451238</v>
+        <v>1.216120358038268</v>
       </c>
       <c r="G14">
-        <v>0.0007646594975768484</v>
+        <v>0.8824100458245425</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1676444444873368</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01212421460037749</v>
       </c>
       <c r="J14">
-        <v>0.7141025732654072</v>
+        <v>0.5352995972059063</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3287111816219692</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1446390055678606</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.664845178611444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7760605669410268</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.705839285986428</v>
+        <v>3.977553790582419</v>
       </c>
       <c r="C15">
-        <v>1.493317902690649</v>
+        <v>1.24660775365885</v>
       </c>
       <c r="D15">
-        <v>0.5900894763711904</v>
+        <v>0.1442963149526406</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.017291489168997</v>
+        <v>1.176366418865371</v>
       </c>
       <c r="G15">
-        <v>0.0007652794159222232</v>
+        <v>0.8561780972982547</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1797667073301454</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01172189913482491</v>
       </c>
       <c r="J15">
-        <v>0.7061107557295259</v>
+        <v>0.5230081306106626</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.320971169381373</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1306222439530735</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.651263555953875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7847038889221807</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.339104578247941</v>
+        <v>3.727842765043533</v>
       </c>
       <c r="C16">
-        <v>1.400076715853459</v>
+        <v>1.169958794965112</v>
       </c>
       <c r="D16">
-        <v>0.5539924855913227</v>
+        <v>0.138692231350575</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9651150447038219</v>
+        <v>1.129501440597352</v>
       </c>
       <c r="G16">
-        <v>0.0007688505839127558</v>
+        <v>0.8158730886115535</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1654513300767491</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.009739544730046568</v>
       </c>
       <c r="J16">
-        <v>0.6607338113105214</v>
+        <v>0.5078293786882995</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3165429365586157</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1270696677652836</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.576564158817916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7860759270882767</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.114969517176007</v>
+        <v>3.623193811179931</v>
       </c>
       <c r="C17">
-        <v>1.343046548667587</v>
+        <v>1.150597803977064</v>
       </c>
       <c r="D17">
-        <v>0.5320018938513726</v>
+        <v>0.1541821374168819</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9341979954873096</v>
+        <v>1.166659342950268</v>
       </c>
       <c r="G17">
-        <v>0.0007710588593930552</v>
+        <v>0.8303202184770413</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1269825198741756</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.008845415174827842</v>
       </c>
       <c r="J17">
-        <v>0.6332501402484212</v>
+        <v>0.51821517056554</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3277339513760253</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1561604325838886</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.533402397976772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7710341479843734</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.986334522014033</v>
+        <v>3.634819605601194</v>
       </c>
       <c r="C18">
-        <v>1.310300373051803</v>
+        <v>1.176251198535624</v>
       </c>
       <c r="D18">
-        <v>0.5194061567586346</v>
+        <v>0.1933310325455295</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9167954701388794</v>
+        <v>1.286224895920171</v>
       </c>
       <c r="G18">
-        <v>0.0007723357404953747</v>
+        <v>0.8970455888971145</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07422037896036926</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.008458164101503129</v>
       </c>
       <c r="J18">
-        <v>0.6175638054146049</v>
+        <v>0.5534210837172111</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3555926074306939</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2370361689147273</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.509505983343132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7410236455050878</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.94282663503634</v>
+        <v>3.72961766710489</v>
       </c>
       <c r="C19">
-        <v>1.299222114887414</v>
+        <v>1.241752552670278</v>
       </c>
       <c r="D19">
-        <v>0.5151501516693031</v>
+        <v>0.2558834251305484</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9109666402759302</v>
+        <v>1.46510800576354</v>
       </c>
       <c r="G19">
-        <v>0.0007727692569974016</v>
+        <v>0.9986822874588199</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02988699570717301</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.008989447562928632</v>
       </c>
       <c r="J19">
-        <v>0.612272787928049</v>
+        <v>0.60463624880569</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3932869801745582</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3849186904978978</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.501570065575208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7069972591236535</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.138799301304971</v>
+        <v>4.074419593190726</v>
       </c>
       <c r="C20">
-        <v>1.349111561570396</v>
+        <v>1.410015127782628</v>
       </c>
       <c r="D20">
-        <v>0.5343372945825422</v>
+        <v>0.3806429557066764</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9374493633543324</v>
+        <v>1.815779375810862</v>
       </c>
       <c r="G20">
-        <v>0.000770823094131471</v>
+        <v>1.205572243439804</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.007462225637297148</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01142981867727499</v>
       </c>
       <c r="J20">
-        <v>0.6361630597667585</v>
+        <v>0.7043488746342916</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4627705454633428</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.7132122737094164</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.537899786975231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6555849926175057</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.800808613719425</v>
+        <v>4.608916836899198</v>
       </c>
       <c r="C21">
-        <v>1.517449103185641</v>
+        <v>1.600606120937471</v>
       </c>
       <c r="D21">
-        <v>0.59945978107325</v>
+        <v>0.4346280157941749</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.031117612890441</v>
+        <v>2.024122496721318</v>
       </c>
       <c r="G21">
-        <v>0.000764362548197387</v>
+        <v>1.349100121162508</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01209883623861852</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01623267062242828</v>
       </c>
       <c r="J21">
-        <v>0.7179426322678353</v>
+        <v>0.7664489851055407</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4954464898680868</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.8284808207118886</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.671415217817838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6293617388265389</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.236612655163128</v>
+        <v>4.956165040578583</v>
       </c>
       <c r="C22">
-        <v>1.628109968594913</v>
+        <v>1.717335136006739</v>
       </c>
       <c r="D22">
-        <v>0.6425742967202552</v>
+        <v>0.4634353574261922</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.096181364942865</v>
+        <v>2.15119711269729</v>
       </c>
       <c r="G22">
-        <v>0.00076019329927483</v>
+        <v>1.439978334399569</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01554325234775444</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01951508287095027</v>
       </c>
       <c r="J22">
-        <v>0.7726576104652594</v>
+        <v>0.8056823073793282</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5166188975351531</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.887124089543633</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.7680446593574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.613715066504831</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.003695700232413</v>
+        <v>4.777025314345906</v>
       </c>
       <c r="C23">
-        <v>1.568982030537029</v>
+        <v>1.651831134489271</v>
       </c>
       <c r="D23">
-        <v>0.6195083349304014</v>
+        <v>0.4473474894068374</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.061080078468535</v>
+        <v>2.087199253803846</v>
       </c>
       <c r="G23">
-        <v>0.0007624140014511272</v>
+        <v>1.395151579111911</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01367040244171502</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01748884168139853</v>
       </c>
       <c r="J23">
-        <v>0.7433297434056243</v>
+        <v>0.78658652420404</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5074707950997777</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.8558543570032242</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.715558269964049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6208194040438713</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.128025167372641</v>
+        <v>4.089903469183014</v>
       </c>
       <c r="C24">
-        <v>1.346369442356433</v>
+        <v>1.411021295005412</v>
       </c>
       <c r="D24">
-        <v>0.5332813145844284</v>
+        <v>0.3879680861972048</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9359782658820706</v>
+        <v>1.841999468580966</v>
       </c>
       <c r="G24">
-        <v>0.0007709296607273668</v>
+        <v>1.222386791923185</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.007558988817717049</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01107136714276535</v>
       </c>
       <c r="J24">
-        <v>0.6348457745214375</v>
+        <v>0.7128368832806018</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4705109541139336</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.7381943719009314</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.535863670242691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6512588292133472</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.193935941633811</v>
+        <v>3.351137541555147</v>
       </c>
       <c r="C25">
-        <v>1.108321783704127</v>
+        <v>1.155000107763783</v>
       </c>
       <c r="D25">
-        <v>0.4422451714458759</v>
+        <v>0.3246061826837376</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8153506602305356</v>
+        <v>1.584260544369428</v>
       </c>
       <c r="G25">
-        <v>0.0007803761911070145</v>
+        <v>1.041990055597253</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.002850567825891659</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005831604424576753</v>
       </c>
       <c r="J25">
-        <v>0.5223881371014443</v>
+        <v>0.6364806635106106</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4330984824503759</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.6127187049490885</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.377035119518609</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6871700041167728</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.822749202295086</v>
+        <v>2.681775395781472</v>
       </c>
       <c r="C2">
-        <v>0.9614788761574573</v>
+        <v>1.028573164325053</v>
       </c>
       <c r="D2">
-        <v>0.2767175078565032</v>
+        <v>0.2931586877415526</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.408598306637757</v>
+        <v>1.316137647637589</v>
       </c>
       <c r="G2">
-        <v>0.9223593894628266</v>
+        <v>0.8115911930978541</v>
       </c>
       <c r="H2">
-        <v>0.0007673538630890153</v>
+        <v>0.0006893822995277521</v>
       </c>
       <c r="I2">
-        <v>0.002592180409469069</v>
+        <v>0.002691926810423517</v>
       </c>
       <c r="J2">
-        <v>0.5871337558215117</v>
+        <v>0.5879845833596562</v>
       </c>
       <c r="K2">
-        <v>0.4126316076062935</v>
+        <v>0.3584802545743102</v>
       </c>
       <c r="L2">
-        <v>0.5212797041709507</v>
+        <v>0.1912105164185576</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09159125213944819</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.519804499091606</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7135351973630151</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7353399039498569</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.455957239887937</v>
+        <v>2.34180306099438</v>
       </c>
       <c r="C3">
-        <v>0.8356714250496111</v>
+        <v>0.8900432894289736</v>
       </c>
       <c r="D3">
-        <v>0.245392408638196</v>
+        <v>0.2594936900759421</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.286228922624701</v>
+        <v>1.20849342379536</v>
       </c>
       <c r="G3">
-        <v>0.8379586001580321</v>
+        <v>0.7418823797005274</v>
       </c>
       <c r="H3">
-        <v>8.923178587139091E-05</v>
+        <v>8.11945746703735E-05</v>
       </c>
       <c r="I3">
-        <v>0.001313198610051636</v>
+        <v>0.001539430305280476</v>
       </c>
       <c r="J3">
-        <v>0.5521700609348983</v>
+        <v>0.5561191644938646</v>
       </c>
       <c r="K3">
-        <v>0.3965676120329391</v>
+        <v>0.3490919676915922</v>
       </c>
       <c r="L3">
-        <v>0.459498197322489</v>
+        <v>0.1935609387031576</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08288753761185674</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.45907324868854</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7342630517728814</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7470790124884346</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.230281723343523</v>
+        <v>2.132087427183194</v>
       </c>
       <c r="C4">
-        <v>0.7589633814358194</v>
+        <v>0.8056660296579423</v>
       </c>
       <c r="D4">
-        <v>0.2262479012355527</v>
+        <v>0.2389447149064097</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.211850600625056</v>
+        <v>1.142837509206387</v>
       </c>
       <c r="G4">
-        <v>0.7868067739616151</v>
+        <v>0.6996431277914468</v>
       </c>
       <c r="H4">
-        <v>4.634781228141094E-06</v>
+        <v>3.83092873734725E-06</v>
       </c>
       <c r="I4">
-        <v>0.0008073644887036657</v>
+        <v>0.001050027279196897</v>
       </c>
       <c r="J4">
-        <v>0.531123105327282</v>
+        <v>0.5365825717604906</v>
       </c>
       <c r="K4">
-        <v>0.3870005918597101</v>
+        <v>0.3434662542910942</v>
       </c>
       <c r="L4">
-        <v>0.4216379631896672</v>
+        <v>0.1949480151743863</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07822430081101572</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.4218232965180277</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7476647841110626</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7550562291215215</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.136675398094894</v>
+        <v>2.044936327339713</v>
       </c>
       <c r="C5">
-        <v>0.7285752984999476</v>
+        <v>0.7721979074729859</v>
       </c>
       <c r="D5">
-        <v>0.2186339207288768</v>
+        <v>0.2307677411976101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.180717436397273</v>
+        <v>1.115239330706089</v>
       </c>
       <c r="G5">
-        <v>0.7651626668646401</v>
+        <v>0.6816782463818782</v>
       </c>
       <c r="H5">
-        <v>4.896367825546477E-05</v>
+        <v>4.277407350405937E-05</v>
       </c>
       <c r="I5">
-        <v>0.0007281875672884297</v>
+        <v>0.0009758892559332821</v>
       </c>
       <c r="J5">
-        <v>0.5221619973232094</v>
+        <v>0.5281626392205681</v>
       </c>
       <c r="K5">
-        <v>0.3826128747642734</v>
+        <v>0.3407071472062881</v>
       </c>
       <c r="L5">
-        <v>0.4062030907704468</v>
+        <v>0.1952646295446492</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07635005545217766</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.4066309869276665</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7535138135668795</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7587825412190341</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.119279639592264</v>
+        <v>2.028692968701137</v>
       </c>
       <c r="C6">
-        <v>0.7244588001216812</v>
+        <v>0.7675832172926391</v>
       </c>
       <c r="D6">
-        <v>0.2175775413699341</v>
+        <v>0.2296196740700225</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.174344704005307</v>
+        <v>1.10951781116735</v>
       </c>
       <c r="G6">
-        <v>0.7604170376747561</v>
+        <v>0.6776319634960402</v>
       </c>
       <c r="H6">
-        <v>6.130149985716926E-05</v>
+        <v>5.368379509995691E-05</v>
       </c>
       <c r="I6">
-        <v>0.0008014915406961975</v>
+        <v>0.001066059007831299</v>
       </c>
       <c r="J6">
-        <v>0.5200910119324931</v>
+        <v>0.5261997604455644</v>
       </c>
       <c r="K6">
-        <v>0.381207408937442</v>
+        <v>0.3396436822329463</v>
       </c>
       <c r="L6">
-        <v>0.4036204088172042</v>
+        <v>0.1950309420941423</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07587504897211872</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.4040897585504979</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7547714420188427</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7597675915501654</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.22396407943387</v>
+        <v>2.124001074973137</v>
       </c>
       <c r="C7">
-        <v>0.7610794155898475</v>
+        <v>0.8061395085455842</v>
       </c>
       <c r="D7">
-        <v>0.226711335643941</v>
+        <v>0.239796075235617</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.208113014236986</v>
+        <v>1.137182596708158</v>
       </c>
       <c r="G7">
-        <v>0.7833397433924745</v>
+        <v>0.7003758239146691</v>
       </c>
       <c r="H7">
-        <v>5.180087725875637E-06</v>
+        <v>4.481386887356109E-06</v>
       </c>
       <c r="I7">
-        <v>0.001015392295610873</v>
+        <v>0.001299235548599675</v>
       </c>
       <c r="J7">
-        <v>0.5293926054184652</v>
+        <v>0.5276468725823662</v>
       </c>
       <c r="K7">
-        <v>0.3850796182895664</v>
+        <v>0.3410654832711302</v>
       </c>
       <c r="L7">
-        <v>0.4213746578916044</v>
+        <v>0.1938628768860795</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07749869995620173</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.4215253059679327</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7485143899553677</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7565498798005805</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.689590676791681</v>
+        <v>2.551275908366506</v>
       </c>
       <c r="C8">
-        <v>0.9213498455677893</v>
+        <v>0.9785807045089143</v>
       </c>
       <c r="D8">
-        <v>0.2666507166972281</v>
+        <v>0.2836043423123584</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.361824054054438</v>
+        <v>1.26760210907905</v>
       </c>
       <c r="G8">
-        <v>0.8888833852381737</v>
+        <v>0.7966301448328892</v>
       </c>
       <c r="H8">
-        <v>0.0004585153634280026</v>
+        <v>0.0004072584975056692</v>
       </c>
       <c r="I8">
-        <v>0.002333382612873969</v>
+        <v>0.002530939903112817</v>
       </c>
       <c r="J8">
-        <v>0.5728500880177307</v>
+        <v>0.5509518647623537</v>
       </c>
       <c r="K8">
-        <v>0.4045591808146511</v>
+        <v>0.3507073898655868</v>
       </c>
       <c r="L8">
-        <v>0.4998825134194647</v>
+        <v>0.190098894895371</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08696792863408476</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4986440913025518</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7216323048162252</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7422590465868382</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.609147961137751</v>
+        <v>3.398359506561803</v>
       </c>
       <c r="C9">
-        <v>1.23618451827997</v>
+        <v>1.324235814958399</v>
       </c>
       <c r="D9">
-        <v>0.3448369386455283</v>
+        <v>0.3681879854176628</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.67632278748728</v>
+        <v>1.541103962330212</v>
       </c>
       <c r="G9">
-        <v>1.107835572763733</v>
+        <v>0.9817360601892631</v>
       </c>
       <c r="H9">
-        <v>0.004219505657429456</v>
+        <v>0.003748631885991616</v>
       </c>
       <c r="I9">
-        <v>0.007067408212605208</v>
+        <v>0.006484128500884978</v>
       </c>
       <c r="J9">
-        <v>0.6647295746398925</v>
+        <v>0.62580603717835</v>
       </c>
       <c r="K9">
-        <v>0.4487607231743524</v>
+        <v>0.3764250360496391</v>
       </c>
       <c r="L9">
-        <v>0.6549394197761842</v>
+        <v>0.1847160313554674</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1128375759692339</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.6507820895913881</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6730455217945135</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7170121218926511</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.263328620389132</v>
+        <v>3.986205446580584</v>
       </c>
       <c r="C10">
-        <v>1.461990571264039</v>
+        <v>1.561882384481635</v>
       </c>
       <c r="D10">
-        <v>0.3916882368237964</v>
+        <v>0.4215583916495973</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.881853825528253</v>
+        <v>1.704732755493453</v>
       </c>
       <c r="G10">
-        <v>1.255432182840394</v>
+        <v>1.129723295692685</v>
       </c>
       <c r="H10">
-        <v>0.008889636139635115</v>
+        <v>0.007859441401850464</v>
       </c>
       <c r="I10">
-        <v>0.01233835052667764</v>
+        <v>0.0107574678551936</v>
       </c>
       <c r="J10">
-        <v>0.7260524322674371</v>
+        <v>0.6324329390243975</v>
       </c>
       <c r="K10">
-        <v>0.4761797966285428</v>
+        <v>0.3868550478402213</v>
       </c>
       <c r="L10">
-        <v>0.7362239310369745</v>
+        <v>0.1771096659752729</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1315907714804929</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7295307315692696</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6454783881740056</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7111884154770962</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.388964532383795</v>
+        <v>4.083531888353775</v>
       </c>
       <c r="C11">
-        <v>1.472732244771294</v>
+        <v>1.548787438539307</v>
       </c>
       <c r="D11">
-        <v>0.3183908058273346</v>
+        <v>0.3485269605161108</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.717637719934785</v>
+        <v>1.526348958388439</v>
       </c>
       <c r="G11">
-        <v>1.174059843161785</v>
+        <v>1.106175264443522</v>
       </c>
       <c r="H11">
-        <v>0.02705849694661211</v>
+        <v>0.02592152034592132</v>
       </c>
       <c r="I11">
-        <v>0.01422412188601996</v>
+        <v>0.01234665872375018</v>
       </c>
       <c r="J11">
-        <v>0.6806921604905085</v>
+        <v>0.5132975106614737</v>
       </c>
       <c r="K11">
-        <v>0.4334744804278543</v>
+        <v>0.3429571504084805</v>
       </c>
       <c r="L11">
-        <v>0.510024901169686</v>
+        <v>0.1567424508664388</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1203774858734903</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5031027645868846</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6733052691925607</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7620137213102538</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.362738846168327</v>
+        <v>4.055385346296646</v>
       </c>
       <c r="C12">
-        <v>1.429460209367221</v>
+        <v>1.489428491384047</v>
       </c>
       <c r="D12">
-        <v>0.2536084389801658</v>
+        <v>0.2807147594393484</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.546738764331565</v>
+        <v>1.360954280965686</v>
       </c>
       <c r="G12">
-        <v>1.081056140663847</v>
+        <v>1.044744688627929</v>
       </c>
       <c r="H12">
-        <v>0.06485519204617418</v>
+        <v>0.06375966034369895</v>
       </c>
       <c r="I12">
-        <v>0.01429583449481964</v>
+        <v>0.01235840433652857</v>
       </c>
       <c r="J12">
-        <v>0.6326169235091328</v>
+        <v>0.4439769668430955</v>
       </c>
       <c r="K12">
-        <v>0.3957044321000609</v>
+        <v>0.3101005299225754</v>
       </c>
       <c r="L12">
-        <v>0.3431980961185133</v>
+        <v>0.1437796036699837</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1090310401108034</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.33673521929218</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7062295608777234</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8072236604691199</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.21036241518749</v>
+        <v>3.927236204469807</v>
       </c>
       <c r="C13">
-        <v>1.346575809612489</v>
+        <v>1.399407581235437</v>
       </c>
       <c r="D13">
-        <v>0.1928830503427719</v>
+        <v>0.2141733676631219</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.356541292745945</v>
+        <v>1.194860531672091</v>
       </c>
       <c r="G13">
-        <v>0.9690630223347227</v>
+        <v>0.9376939247709544</v>
       </c>
       <c r="H13">
-        <v>0.1193081247849079</v>
+        <v>0.1183737677579018</v>
       </c>
       <c r="I13">
-        <v>0.01324370443371503</v>
+        <v>0.01153604158392074</v>
       </c>
       <c r="J13">
-        <v>0.5772538710299386</v>
+        <v>0.4127305602167439</v>
       </c>
       <c r="K13">
-        <v>0.3566512627693541</v>
+        <v>0.2821523736266514</v>
       </c>
       <c r="L13">
-        <v>0.2130058178676393</v>
+        <v>0.1345813036261561</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.09668497612644344</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2074909269660736</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.745296851824115</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8479653571654779</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.045911200991725</v>
+        <v>3.790949832259059</v>
       </c>
       <c r="C14">
-        <v>1.272030061168323</v>
+        <v>1.323439060456508</v>
       </c>
       <c r="D14">
-        <v>0.1537579186106797</v>
+        <v>0.1702522721358974</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.216120358038268</v>
+        <v>1.078104275882168</v>
       </c>
       <c r="G14">
-        <v>0.8824100458245425</v>
+        <v>0.8443404398772714</v>
       </c>
       <c r="H14">
-        <v>0.1676444444873368</v>
+        <v>0.1668601808578245</v>
       </c>
       <c r="I14">
-        <v>0.01212421460037749</v>
+        <v>0.01070484365269042</v>
       </c>
       <c r="J14">
-        <v>0.5352995972059063</v>
+        <v>0.4047133744122959</v>
       </c>
       <c r="K14">
-        <v>0.3287111816219692</v>
+        <v>0.2642841309595454</v>
       </c>
       <c r="L14">
-        <v>0.1446390055678606</v>
+        <v>0.1294722734659643</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0875848884974566</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1399277542533568</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7760605669410268</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8745613709310618</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.977553790582419</v>
+        <v>3.734457682333868</v>
       </c>
       <c r="C15">
-        <v>1.24660775365885</v>
+        <v>1.299074469944173</v>
       </c>
       <c r="D15">
-        <v>0.1442963149526406</v>
+        <v>0.1593014425469477</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.176366418865371</v>
+        <v>1.047185404619995</v>
       </c>
       <c r="G15">
-        <v>0.8561780972982547</v>
+        <v>0.8125169404286225</v>
       </c>
       <c r="H15">
-        <v>0.1797667073301454</v>
+        <v>0.1790431379183701</v>
       </c>
       <c r="I15">
-        <v>0.01172189913482491</v>
+        <v>0.01044986681597759</v>
       </c>
       <c r="J15">
-        <v>0.5230081306106626</v>
+        <v>0.4081390489121901</v>
       </c>
       <c r="K15">
-        <v>0.320971169381373</v>
+        <v>0.2601089566399324</v>
       </c>
       <c r="L15">
-        <v>0.1306222439530735</v>
+        <v>0.128623197387121</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0849136897860987</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1261941314002009</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7847038889221807</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8800201019197971</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.727842765043533</v>
+        <v>3.527248519428269</v>
       </c>
       <c r="C16">
-        <v>1.169958794965112</v>
+        <v>1.233231377966604</v>
       </c>
       <c r="D16">
-        <v>0.138692231350575</v>
+        <v>0.1505194174633289</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.129501440597352</v>
+        <v>1.027011373964271</v>
       </c>
       <c r="G16">
-        <v>0.8158730886115535</v>
+        <v>0.7399123879922342</v>
       </c>
       <c r="H16">
-        <v>0.1654513300767491</v>
+        <v>0.164961675216361</v>
       </c>
       <c r="I16">
-        <v>0.009739544730046568</v>
+        <v>0.008979182891705406</v>
       </c>
       <c r="J16">
-        <v>0.5078293786882995</v>
+        <v>0.4577924133300399</v>
       </c>
       <c r="K16">
-        <v>0.3165429365586157</v>
+        <v>0.2649285132691936</v>
       </c>
       <c r="L16">
-        <v>0.1270696677652836</v>
+        <v>0.1336650668144799</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0817726846777127</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1235358191638056</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7860759270882767</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8627943348243718</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.623193811179931</v>
+        <v>3.437024869916343</v>
       </c>
       <c r="C17">
-        <v>1.150597803977064</v>
+        <v>1.220665583354503</v>
       </c>
       <c r="D17">
-        <v>0.1541821374168819</v>
+        <v>0.1659940864627885</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.166659342950268</v>
+        <v>1.070798286238684</v>
       </c>
       <c r="G17">
-        <v>0.8303202184770413</v>
+        <v>0.7374736564533464</v>
       </c>
       <c r="H17">
-        <v>0.1269825198741756</v>
+        <v>0.1265855301489012</v>
       </c>
       <c r="I17">
-        <v>0.008845415174827842</v>
+        <v>0.008309699924597957</v>
       </c>
       <c r="J17">
-        <v>0.51821517056554</v>
+        <v>0.4949431879452817</v>
       </c>
       <c r="K17">
-        <v>0.3277339513760253</v>
+        <v>0.2775198420731151</v>
       </c>
       <c r="L17">
-        <v>0.1561604325838886</v>
+        <v>0.1403459257875816</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08373826203816037</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1529199326127255</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7710341479843734</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8380398474237296</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.634819605601194</v>
+        <v>3.445613726502131</v>
       </c>
       <c r="C18">
-        <v>1.176251198535624</v>
+        <v>1.254170133699915</v>
       </c>
       <c r="D18">
-        <v>0.1933310325455295</v>
+        <v>0.2072827424452157</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.286224895920171</v>
+        <v>1.18430522383494</v>
       </c>
       <c r="G18">
-        <v>0.8970455888971145</v>
+        <v>0.7893767629680042</v>
       </c>
       <c r="H18">
-        <v>0.07422037896036926</v>
+        <v>0.07382681621533038</v>
       </c>
       <c r="I18">
-        <v>0.008458164101503129</v>
+        <v>0.007922255412273316</v>
       </c>
       <c r="J18">
-        <v>0.5534210837172111</v>
+        <v>0.5382624675184644</v>
       </c>
       <c r="K18">
-        <v>0.3555926074306939</v>
+        <v>0.3011900258369131</v>
       </c>
       <c r="L18">
-        <v>0.2370361689147273</v>
+        <v>0.1503736439992416</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09125666961327283</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2336463063394092</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7410236455050878</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8022021972250144</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.72961766710489</v>
+        <v>3.525954804202513</v>
       </c>
       <c r="C19">
-        <v>1.241752552670278</v>
+        <v>1.329473071355778</v>
       </c>
       <c r="D19">
-        <v>0.2558834251305484</v>
+        <v>0.27362668645101</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.46510800576354</v>
+        <v>1.348541617676759</v>
       </c>
       <c r="G19">
-        <v>0.9986822874588199</v>
+        <v>0.8757501457043873</v>
       </c>
       <c r="H19">
-        <v>0.02988699570717301</v>
+        <v>0.02941476420672018</v>
       </c>
       <c r="I19">
-        <v>0.008989447562928632</v>
+        <v>0.008395865562618177</v>
       </c>
       <c r="J19">
-        <v>0.60463624880569</v>
+        <v>0.5868161784869699</v>
       </c>
       <c r="K19">
-        <v>0.3932869801745582</v>
+        <v>0.3310528998646731</v>
       </c>
       <c r="L19">
-        <v>0.3849186904978978</v>
+        <v>0.1619625136603382</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1023042204161086</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3809836775194668</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7069972591236535</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7647494896839007</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.074419593190726</v>
+        <v>3.823865643732745</v>
       </c>
       <c r="C20">
-        <v>1.410015127782628</v>
+        <v>1.512987596588175</v>
       </c>
       <c r="D20">
-        <v>0.3806429557066764</v>
+        <v>0.4073359776652552</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.815779375810862</v>
+        <v>1.658484739693762</v>
       </c>
       <c r="G20">
-        <v>1.205572243439804</v>
+        <v>1.066206629878465</v>
       </c>
       <c r="H20">
-        <v>0.007462225637297148</v>
+        <v>0.006624897971510002</v>
       </c>
       <c r="I20">
-        <v>0.01142981867727499</v>
+        <v>0.01035279008962586</v>
       </c>
       <c r="J20">
-        <v>0.7043488746342916</v>
+        <v>0.6510088230929512</v>
       </c>
       <c r="K20">
-        <v>0.4627705454633428</v>
+        <v>0.3813406179498386</v>
       </c>
       <c r="L20">
-        <v>0.7132122737094164</v>
+        <v>0.1780993162007434</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1254015749508284</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7073826060455701</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6555849926175057</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.714427872347386</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.608916836899198</v>
+        <v>4.260194838732275</v>
       </c>
       <c r="C21">
-        <v>1.600606120937471</v>
+        <v>1.682200556550526</v>
       </c>
       <c r="D21">
-        <v>0.4346280157941749</v>
+        <v>0.4754820619001521</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.024122496721318</v>
+        <v>1.787871306564554</v>
       </c>
       <c r="G21">
-        <v>1.349100121162508</v>
+        <v>1.285522493129918</v>
       </c>
       <c r="H21">
-        <v>0.01209883623861852</v>
+        <v>0.01055339415318869</v>
       </c>
       <c r="I21">
-        <v>0.01623267062242828</v>
+        <v>0.01394827978738977</v>
       </c>
       <c r="J21">
-        <v>0.7664489851055407</v>
+        <v>0.5429389542570107</v>
       </c>
       <c r="K21">
-        <v>0.4954464898680868</v>
+        <v>0.385308216907184</v>
       </c>
       <c r="L21">
-        <v>0.8284808207118886</v>
+        <v>0.1709443005140763</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1389040979472469</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.8195594582312395</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6293617388265389</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7154397579517777</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.956165040578583</v>
+        <v>4.539162936915886</v>
       </c>
       <c r="C22">
-        <v>1.717335136006739</v>
+        <v>1.781102609012748</v>
       </c>
       <c r="D22">
-        <v>0.4634353574261922</v>
+        <v>0.5141434244942502</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.15119711269729</v>
+        <v>1.859918763402163</v>
       </c>
       <c r="G22">
-        <v>1.439978334399569</v>
+        <v>1.437235259597742</v>
       </c>
       <c r="H22">
-        <v>0.01554325234775444</v>
+        <v>0.01344987892007266</v>
       </c>
       <c r="I22">
-        <v>0.01951508287095027</v>
+        <v>0.01622987044679736</v>
       </c>
       <c r="J22">
-        <v>0.8056823073793282</v>
+        <v>0.4706859570421216</v>
       </c>
       <c r="K22">
-        <v>0.5166188975351531</v>
+        <v>0.3866970520325879</v>
       </c>
       <c r="L22">
-        <v>0.887124089543633</v>
+        <v>0.1659276181839289</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1476138371444762</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8761175080128396</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.613715066504831</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7192278967816392</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.777025314345906</v>
+        <v>4.40204875152557</v>
       </c>
       <c r="C23">
-        <v>1.651831134489271</v>
+        <v>1.729724188817386</v>
       </c>
       <c r="D23">
-        <v>0.4473474894068374</v>
+        <v>0.4916009903031977</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.087199253803846</v>
+        <v>1.830834744268088</v>
       </c>
       <c r="G23">
-        <v>1.395151579111911</v>
+        <v>1.347877350037379</v>
       </c>
       <c r="H23">
-        <v>0.01367040244171502</v>
+        <v>0.01189392146453072</v>
       </c>
       <c r="I23">
-        <v>0.01748884168139853</v>
+        <v>0.01470798822282493</v>
       </c>
       <c r="J23">
-        <v>0.78658652420404</v>
+        <v>0.5255029370033952</v>
       </c>
       <c r="K23">
-        <v>0.5074707950997777</v>
+        <v>0.3895495706658565</v>
       </c>
       <c r="L23">
-        <v>0.8558543570032242</v>
+        <v>0.1698182828110042</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1444347329862303</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.8460611249801531</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6208194040438713</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7137599780396116</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.089903469183014</v>
+        <v>3.837823900736169</v>
       </c>
       <c r="C24">
-        <v>1.411021295005412</v>
+        <v>1.515097360537936</v>
       </c>
       <c r="D24">
-        <v>0.3879680861972048</v>
+        <v>0.4150438475028011</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.841999468580966</v>
+        <v>1.682928467566526</v>
       </c>
       <c r="G24">
-        <v>1.222386791923185</v>
+        <v>1.080350516868194</v>
       </c>
       <c r="H24">
-        <v>0.007558988817717049</v>
+        <v>0.006705733688165405</v>
       </c>
       <c r="I24">
-        <v>0.01107136714276535</v>
+        <v>0.009880533655665324</v>
       </c>
       <c r="J24">
-        <v>0.7128368832806018</v>
+        <v>0.6598807468297707</v>
       </c>
       <c r="K24">
-        <v>0.4705109541139336</v>
+        <v>0.3878090255521869</v>
       </c>
       <c r="L24">
-        <v>0.7381943719009314</v>
+        <v>0.1806032495704635</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1277821387056122</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7322808793622499</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6512588292133472</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.708759715077214</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.351137541555147</v>
+        <v>3.164070149197585</v>
       </c>
       <c r="C25">
-        <v>1.155000107763783</v>
+        <v>1.237075019687779</v>
       </c>
       <c r="D25">
-        <v>0.3246061826837376</v>
+        <v>0.3456395912578643</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.584260544369428</v>
+        <v>1.463977694944276</v>
       </c>
       <c r="G25">
-        <v>1.041990055597253</v>
+        <v>0.9199637465216028</v>
       </c>
       <c r="H25">
-        <v>0.002850567825891659</v>
+        <v>0.002539544814444961</v>
       </c>
       <c r="I25">
-        <v>0.005831604424576753</v>
+        <v>0.005626524377500886</v>
       </c>
       <c r="J25">
-        <v>0.6364806635106106</v>
+        <v>0.6130399490371161</v>
       </c>
       <c r="K25">
-        <v>0.4330984824503759</v>
+        <v>0.3673708693714346</v>
       </c>
       <c r="L25">
-        <v>0.6127187049490885</v>
+        <v>0.1854634158921229</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.104515317624525</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6094677457869153</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6871700041167728</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7244971915359244</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
